--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>500224.5645627938</v>
+        <v>495598.9384016155</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7317831.764551303</v>
+        <v>7317831.764551312</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5276884.226076716</v>
+        <v>5276884.226076715</v>
       </c>
     </row>
     <row r="11">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>8.443886199750137</v>
+      </c>
+      <c r="D8" t="n">
         <v>18.21830727030011</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.15998885509158</v>
       </c>
       <c r="E8" t="n">
         <v>18.21830727030011</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>4.099778767350758</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17.42962761886591</v>
+      </c>
+      <c r="G9" t="n">
         <v>18.21830727030011</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
         <v>18.21830727030011</v>
-      </c>
-      <c r="F9" t="n">
-        <v>18.21830727030011</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>10.44271547525859</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.888458418784962</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1290,49 +1290,49 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>0.5891238419305889</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>250.5837436401206</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>204.5281633465511</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>140.3679631485639</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>65.93169399229406</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1621,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>262.9676869696006</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>75.47528872301208</v>
       </c>
     </row>
     <row r="15">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1785,7 +1785,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>104.1683918311356</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>86.07115102319186</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>204.5281633465509</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>37.28260192465574</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>84.87771078886277</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>203.1244225712384</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>277.176001558223</v>
+        <v>262.0406394030401</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>111.3526566093818</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>108.6835547225993</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3402845023203</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>3.402710199798409</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>306.1682189885944</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2335,7 +2335,7 @@
         <v>398.1909952729499</v>
       </c>
       <c r="H23" t="n">
-        <v>100.8483168732349</v>
+        <v>273.3351763968649</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>55.36330513430146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.5030938079846</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6029861884722</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>91.98713285265765</v>
       </c>
       <c r="H24" t="n">
-        <v>41.9665653376141</v>
+        <v>41.96656533761411</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.6503145808326</v>
@@ -2496,7 +2496,7 @@
         <v>133.9645280936154</v>
       </c>
       <c r="I25" t="n">
-        <v>70.37965898240768</v>
+        <v>70.37965898240769</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.118713304402142</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>151.9808627765896</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.0985763770977</v>
       </c>
       <c r="U25" t="n">
         <v>277.3311084459054</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>65.08949284107844</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>270.3939565021292</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>259.9712272357114</v>
+        <v>398.1909952729499</v>
       </c>
       <c r="H26" t="n">
         <v>273.3351763968649</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>55.36330513430148</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.5030938079846</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6029861884722</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>91.98713285265765</v>
       </c>
       <c r="H27" t="n">
-        <v>41.9665653376141</v>
+        <v>41.96656533761411</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2733,7 +2733,7 @@
         <v>133.9645280936154</v>
       </c>
       <c r="I28" t="n">
-        <v>70.37965898240768</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>209.1861211756604</v>
       </c>
       <c r="U28" t="n">
         <v>277.3311084459054</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.3985959932303</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>140.0540347234475</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.1909952729499</v>
+        <v>303.3597498969448</v>
       </c>
       <c r="H29" t="n">
-        <v>273.3351763968649</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.5030938079846</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6029861884722</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>91.98713285265765</v>
       </c>
       <c r="H30" t="n">
-        <v>41.9665653376141</v>
+        <v>41.96656533761411</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>9.901820285872622</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>104.3628792254542</v>
       </c>
       <c r="G31" t="n">
         <v>163.6503145808326</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.9645280936154</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.118713304402142</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>151.9808627765896</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.872134740882</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3311084459054</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.1909952729499</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>228.7060860313012</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>55.36330513430148</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.5030938079846</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6029861884722</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3094,10 +3094,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>124.114095863166</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>91.98713285265765</v>
       </c>
       <c r="H33" t="n">
-        <v>41.9665653376141</v>
+        <v>41.96656533761411</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>9.901820285872622</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>163.6503145808326</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.9645280936154</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>70.37965898240769</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.118713304402142</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>151.9808627765896</v>
@@ -3243,16 +3243,16 @@
         <v>236.872134740882</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3311084459054</v>
+        <v>274.2133036391785</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>109.7917196130083</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.1909952729499</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>183.0954921059945</v>
+        <v>273.3351763968649</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>55.36330513430148</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.5030938079846</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.98713285265765</v>
       </c>
       <c r="H36" t="n">
-        <v>41.9665653376141</v>
+        <v>41.96656533761411</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>87.67489002446089</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>133.9645280936154</v>
       </c>
       <c r="I37" t="n">
-        <v>70.37965898240768</v>
+        <v>70.37965898240769</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.118713304402164</v>
       </c>
       <c r="S37" t="n">
-        <v>151.9808627765896</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.872134740882</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3311084459054</v>
+        <v>254.9574664104391</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3508,19 +3508,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>4.368241047240098</v>
+        <v>398.1909952729499</v>
       </c>
       <c r="H38" t="n">
-        <v>273.3351763968649</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>182.1809398727819</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6029861884722</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>91.98713285265765</v>
       </c>
       <c r="H39" t="n">
-        <v>41.9665653376141</v>
+        <v>41.96656533761411</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>163.6503145808326</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.9645280936154</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>70.37965898240769</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.118713304402142</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>151.9808627765896</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>166.3740568311737</v>
       </c>
       <c r="U40" t="n">
-        <v>27.73217805630294</v>
+        <v>277.3311084459054</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>279.896900453209</v>
       </c>
       <c r="H41" t="n">
-        <v>141.8043750354534</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.36330513430146</v>
+        <v>55.36330513430148</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.5030938079846</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>91.98713285265765</v>
       </c>
       <c r="H42" t="n">
-        <v>41.9665653376141</v>
+        <v>41.96656533761411</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>80.99409810230777</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3918,7 +3918,7 @@
         <v>133.9645280936154</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>70.37965898240769</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.118713304402142</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>151.9808627765896</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>141.5483300791165</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>131.7126540485027</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.1909952729499</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>273.3351763968649</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.36330513430146</v>
+        <v>27.05018576678262</v>
       </c>
       <c r="T44" t="n">
-        <v>209.5030938079846</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.6029861884722</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>91.98713285265765</v>
       </c>
       <c r="H45" t="n">
-        <v>41.9665653376141</v>
+        <v>41.96656533761411</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>107.8665149251901</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6503145808326</v>
+        <v>18.04327600309622</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>70.37965898240769</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.118713304402142</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>151.9808627765896</v>
       </c>
       <c r="T46" t="n">
-        <v>236.872134740882</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3311084459054</v>
@@ -4197,7 +4197,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.89676828464615</v>
+        <v>65.19363428935176</v>
       </c>
       <c r="C8" t="n">
-        <v>45.49443770858543</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="D8" t="n">
         <v>38.26212573374545</v>
@@ -4849,7 +4849,7 @@
         <v>65.19363428935176</v>
       </c>
       <c r="Y8" t="n">
-        <v>63.89676828464615</v>
+        <v>65.19363428935176</v>
       </c>
     </row>
     <row r="9">
@@ -4862,40 +4862,40 @@
         <v>71.353844433654</v>
       </c>
       <c r="C9" t="n">
-        <v>67.21265375956233</v>
+        <v>71.353844433654</v>
       </c>
       <c r="D9" t="n">
-        <v>48.8103231835016</v>
+        <v>71.353844433654</v>
       </c>
       <c r="E9" t="n">
-        <v>30.40799260744088</v>
+        <v>71.353844433654</v>
       </c>
       <c r="F9" t="n">
-        <v>12.00566203138016</v>
+        <v>53.74815997015308</v>
       </c>
       <c r="G9" t="n">
-        <v>12.00566203138016</v>
+        <v>35.34582939409236</v>
       </c>
       <c r="H9" t="n">
-        <v>12.00566203138016</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="I9" t="n">
-        <v>1.457464581624009</v>
+        <v>6.395301368275486</v>
       </c>
       <c r="J9" t="n">
         <v>1.457464581624009</v>
       </c>
       <c r="K9" t="n">
-        <v>1.457464581624009</v>
+        <v>5.886021080118652</v>
       </c>
       <c r="L9" t="n">
-        <v>14.93961824937914</v>
+        <v>19.36817474787378</v>
       </c>
       <c r="M9" t="n">
-        <v>28.67140894156423</v>
+        <v>37.4042989454709</v>
       </c>
       <c r="N9" t="n">
-        <v>46.70753313916134</v>
+        <v>55.44042314306801</v>
       </c>
       <c r="O9" t="n">
         <v>62.96599962173947</v>
@@ -4980,34 +4980,34 @@
         <v>2.052539169432685</v>
       </c>
       <c r="P10" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="R10" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="S10" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="T10" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="U10" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="V10" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="W10" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="X10" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.27616607839228</v>
+        <v>1139.58440944587</v>
       </c>
       <c r="C11" t="n">
-        <v>36.27616607839228</v>
+        <v>712.6836794591704</v>
       </c>
       <c r="D11" t="n">
-        <v>36.27616607839228</v>
+        <v>289.3910586441707</v>
       </c>
       <c r="E11" t="n">
-        <v>36.27616607839228</v>
+        <v>289.3910586441707</v>
       </c>
       <c r="F11" t="n">
         <v>36.27616607839228</v>
@@ -5050,7 +5050,7 @@
         <v>598.9981372303101</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1607.214199529158</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U11" t="n">
-        <v>1607.214199529158</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V11" t="n">
-        <v>1249.724784655408</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="W11" t="n">
-        <v>853.3334349557547</v>
+        <v>1139.58440944587</v>
       </c>
       <c r="X11" t="n">
-        <v>441.613436123502</v>
+        <v>1139.58440944587</v>
       </c>
       <c r="Y11" t="n">
-        <v>36.27616607839228</v>
+        <v>1139.58440944587</v>
       </c>
     </row>
     <row r="12">
@@ -5129,13 +5129,13 @@
         <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>945.2060176780108</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N12" t="n">
         <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1357.404666497814</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P12" t="n">
         <v>1510.802781344166</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1088.137999643809</v>
+        <v>894.634485011681</v>
       </c>
       <c r="C13" t="n">
-        <v>916.1654365227246</v>
+        <v>752.8486636494953</v>
       </c>
       <c r="D13" t="n">
         <v>752.8486636494953</v>
@@ -5202,19 +5202,19 @@
         <v>70.15038753583897</v>
       </c>
       <c r="K13" t="n">
-        <v>138.6345353799611</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L13" t="n">
-        <v>587.5520906000656</v>
+        <v>478.4129675942053</v>
       </c>
       <c r="M13" t="n">
-        <v>1036.46964582017</v>
+        <v>927.3305228143098</v>
       </c>
       <c r="N13" t="n">
-        <v>1133.468351912118</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O13" t="n">
-        <v>1582.385907132223</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P13" t="n">
         <v>1773.863841351391</v>
@@ -5226,25 +5226,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1747.210633220327</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.210633220327</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U13" t="n">
-        <v>1747.210633220327</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V13" t="n">
-        <v>1747.210633220327</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="W13" t="n">
-        <v>1747.210633220327</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="X13" t="n">
-        <v>1504.646736666132</v>
+        <v>894.634485011681</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.303968355874</v>
+        <v>894.634485011681</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1555.593163543255</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="C14" t="n">
-        <v>1555.593163543255</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D14" t="n">
-        <v>1555.593163543255</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E14" t="n">
-        <v>1129.616223691112</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F14" t="n">
-        <v>704.4920418805125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G14" t="n">
-        <v>301.9000923103121</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149083</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250302</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303108</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103486</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O14" t="n">
-        <v>1382.739131455148</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P14" t="n">
         <v>1591.77691709091</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.927517189221</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R14" t="n">
         <v>1813.808303919614</v>
@@ -5311,19 +5311,19 @@
         <v>1813.808303919614</v>
       </c>
       <c r="U14" t="n">
-        <v>1555.593163543255</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="V14" t="n">
-        <v>1555.593163543255</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="W14" t="n">
-        <v>1555.593163543255</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="X14" t="n">
-        <v>1555.593163543255</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="Y14" t="n">
-        <v>1555.593163543255</v>
+        <v>1737.570638542834</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C15" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G15" t="n">
-        <v>80.6241773300433</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>75.26691519968661</v>
+        <v>51.80960935527474</v>
       </c>
       <c r="J15" t="n">
-        <v>141.4213503255156</v>
+        <v>117.9640444811038</v>
       </c>
       <c r="K15" t="n">
-        <v>267.1899758967557</v>
+        <v>243.7326700523438</v>
       </c>
       <c r="L15" t="n">
-        <v>443.8288267274047</v>
+        <v>420.3715208829927</v>
       </c>
       <c r="M15" t="n">
-        <v>653.1035252084198</v>
+        <v>634.6966924775747</v>
       </c>
       <c r="N15" t="n">
-        <v>870.258507040736</v>
+        <v>1083.614247697679</v>
       </c>
       <c r="O15" t="n">
-        <v>1065.302174028223</v>
+        <v>1532.531802917784</v>
       </c>
       <c r="P15" t="n">
-        <v>1225.987570233631</v>
+        <v>1685.929917764136</v>
       </c>
       <c r="Q15" t="n">
-        <v>1674.905125453736</v>
+        <v>1780.360625738642</v>
       </c>
       <c r="R15" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1011.937267570567</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="C16" t="n">
-        <v>839.9647044494834</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="D16" t="n">
-        <v>676.6479315762541</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="E16" t="n">
-        <v>510.4397257291076</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="F16" t="n">
-        <v>338.577951503668</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G16" t="n">
-        <v>173.104676471574</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27616607839229</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J16" t="n">
-        <v>70.15038753583899</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K16" t="n">
-        <v>138.6345353799612</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L16" t="n">
-        <v>231.1303584801833</v>
+        <v>605.7290006390006</v>
       </c>
       <c r="M16" t="n">
-        <v>680.0479137002878</v>
+        <v>703.7823482166198</v>
       </c>
       <c r="N16" t="n">
-        <v>941.4489734168435</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O16" t="n">
-        <v>1390.366528636948</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P16" t="n">
-        <v>1773.863841351392</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
@@ -5463,25 +5463,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1708.587706110387</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T16" t="n">
-        <v>1708.587706110387</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U16" t="n">
-        <v>1428.446004592891</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="V16" t="n">
-        <v>1428.446004592891</v>
+        <v>1330.399526494289</v>
       </c>
       <c r="W16" t="n">
-        <v>1428.446004592891</v>
+        <v>1055.547122666802</v>
       </c>
       <c r="X16" t="n">
-        <v>1428.446004592891</v>
+        <v>812.9832261126068</v>
       </c>
       <c r="Y16" t="n">
-        <v>1202.103236282633</v>
+        <v>586.6404578023488</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.27616607839228</v>
+        <v>1329.404979350724</v>
       </c>
       <c r="C17" t="n">
-        <v>36.27616607839228</v>
+        <v>902.5042493640237</v>
       </c>
       <c r="D17" t="n">
-        <v>36.27616607839228</v>
+        <v>902.5042493640237</v>
       </c>
       <c r="E17" t="n">
-        <v>36.27616607839228</v>
+        <v>476.5273095118813</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27616607839228</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G17" t="n">
         <v>36.27616607839228</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V17" t="n">
-        <v>1456.318889045863</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W17" t="n">
-        <v>1059.92753934621</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X17" t="n">
-        <v>648.2075405139574</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="Y17" t="n">
-        <v>242.8702704688477</v>
+        <v>1749.253343642254</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C18" t="n">
-        <v>475.9308838607421</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760273</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489645</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318686</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
         <v>80.62417733004328</v>
@@ -5591,55 +5591,55 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>535.8351625219349</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L18" t="n">
-        <v>712.4740133525838</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M18" t="n">
-        <v>921.7487118335989</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N18" t="n">
-        <v>1337.488135930297</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O18" t="n">
-        <v>1532.531802917784</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P18" t="n">
-        <v>1685.929917764136</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q18" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U18" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.5837784570099</v>
+        <v>580.9868894240557</v>
       </c>
       <c r="C19" t="n">
-        <v>373.6112153359259</v>
+        <v>580.9868894240557</v>
       </c>
       <c r="D19" t="n">
-        <v>373.6112153359259</v>
+        <v>580.9868894240557</v>
       </c>
       <c r="E19" t="n">
-        <v>373.6112153359259</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="F19" t="n">
-        <v>201.7494411104863</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839228</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I19" t="n">
         <v>36.27616607839228</v>
@@ -5676,19 +5676,19 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>463.838861142204</v>
+        <v>216.556252028182</v>
       </c>
       <c r="L19" t="n">
-        <v>556.3346842424261</v>
+        <v>309.0520751284041</v>
       </c>
       <c r="M19" t="n">
-        <v>654.3880318200453</v>
+        <v>703.7823482166198</v>
       </c>
       <c r="N19" t="n">
-        <v>790.075476038944</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O19" t="n">
-        <v>1238.993031259048</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P19" t="n">
         <v>1622.490343973492</v>
@@ -5700,25 +5700,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T19" t="n">
-        <v>1608.632119504221</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U19" t="n">
-        <v>1328.490417986726</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="V19" t="n">
-        <v>1046.778950594755</v>
+        <v>1135.6286156914</v>
       </c>
       <c r="W19" t="n">
-        <v>771.9265467672678</v>
+        <v>1135.6286156914</v>
       </c>
       <c r="X19" t="n">
-        <v>771.9265467672678</v>
+        <v>893.0647191372053</v>
       </c>
       <c r="Y19" t="n">
-        <v>545.5837784570099</v>
+        <v>666.7219508269474</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.8438747983129</v>
+        <v>727.8644106136176</v>
       </c>
       <c r="C20" t="n">
-        <v>718.8438747983129</v>
+        <v>300.9636806269177</v>
       </c>
       <c r="D20" t="n">
-        <v>718.8438747983129</v>
+        <v>300.9636806269177</v>
       </c>
       <c r="E20" t="n">
-        <v>718.8438747983129</v>
+        <v>300.9636806269177</v>
       </c>
       <c r="F20" t="n">
-        <v>718.8438747983129</v>
+        <v>300.9636806269177</v>
       </c>
       <c r="G20" t="n">
-        <v>316.2519252281125</v>
+        <v>300.9636806269177</v>
       </c>
       <c r="H20" t="n">
         <v>36.27616607839228</v>
@@ -5752,16 +5752,16 @@
         <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1600.530719422884</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U20" t="n">
-        <v>1488.053288504316</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V20" t="n">
-        <v>1130.563873630566</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="W20" t="n">
-        <v>1130.563873630566</v>
+        <v>1139.58440944587</v>
       </c>
       <c r="X20" t="n">
-        <v>718.8438747983129</v>
+        <v>727.8644106136176</v>
       </c>
       <c r="Y20" t="n">
-        <v>718.8438747983129</v>
+        <v>727.8644106136176</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>180.0465492813059</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>628.9641045014104</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>805.6029553320593</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.877653813074</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N21" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.2487291994763</v>
+        <v>421.1671827702548</v>
       </c>
       <c r="C22" t="n">
-        <v>36.27616607839228</v>
+        <v>421.1671827702548</v>
       </c>
       <c r="D22" t="n">
-        <v>36.27616607839228</v>
+        <v>421.1671827702548</v>
       </c>
       <c r="E22" t="n">
-        <v>36.27616607839228</v>
+        <v>421.1671827702548</v>
       </c>
       <c r="F22" t="n">
-        <v>36.27616607839228</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="G22" t="n">
-        <v>36.27616607839228</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I22" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>297.4793645271714</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>746.3969197472759</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M22" t="n">
-        <v>844.4502673248951</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N22" t="n">
-        <v>941.448973416843</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O22" t="n">
-        <v>1390.366528636948</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P22" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S22" t="n">
-        <v>1813.808303919614</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T22" t="n">
-        <v>1704.026935512948</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="U22" t="n">
-        <v>1423.885233995453</v>
+        <v>1365.388364748642</v>
       </c>
       <c r="V22" t="n">
-        <v>1142.173766603482</v>
+        <v>1083.676897356671</v>
       </c>
       <c r="W22" t="n">
-        <v>867.3213627759948</v>
+        <v>1080.239816346773</v>
       </c>
       <c r="X22" t="n">
-        <v>624.7574662217999</v>
+        <v>837.6759197925784</v>
       </c>
       <c r="Y22" t="n">
-        <v>398.4146979115419</v>
+        <v>611.3331514823204</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1398.210952832473</v>
+        <v>1458.408310312649</v>
       </c>
       <c r="C23" t="n">
-        <v>1398.210952832473</v>
+        <v>1458.408310312649</v>
       </c>
       <c r="D23" t="n">
-        <v>974.9183320174732</v>
+        <v>1458.408310312649</v>
       </c>
       <c r="E23" t="n">
-        <v>974.9183320174732</v>
+        <v>1149.147483051443</v>
       </c>
       <c r="F23" t="n">
-        <v>549.7941502068734</v>
+        <v>724.023301240843</v>
       </c>
       <c r="G23" t="n">
-        <v>147.5810236685402</v>
+        <v>321.8101747025099</v>
       </c>
       <c r="H23" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="I23" t="n">
-        <v>91.84074928306302</v>
+        <v>91.84074928306299</v>
       </c>
       <c r="J23" t="n">
-        <v>239.5604597472881</v>
+        <v>239.560459747288</v>
       </c>
       <c r="K23" t="n">
-        <v>469.1990225635043</v>
+        <v>469.1990225635042</v>
       </c>
       <c r="L23" t="n">
-        <v>760.0825020696884</v>
+        <v>760.0825020696882</v>
       </c>
       <c r="M23" t="n">
-        <v>1088.892703851147</v>
+        <v>1088.892703851146</v>
       </c>
       <c r="N23" t="n">
-        <v>1423.773142319472</v>
+        <v>1423.773142319471</v>
       </c>
       <c r="O23" t="n">
-        <v>1737.824264321171</v>
+        <v>1737.824264321169</v>
       </c>
       <c r="P23" t="n">
-        <v>2000.253218480541</v>
+        <v>2000.25321848054</v>
       </c>
       <c r="Q23" t="n">
-        <v>2189.49836261031</v>
+        <v>2189.498362610308</v>
       </c>
       <c r="R23" t="n">
-        <v>2285.701846394944</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="S23" t="n">
-        <v>2229.779315956256</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="T23" t="n">
-        <v>2229.779315956256</v>
+        <v>2074.08255972021</v>
       </c>
       <c r="U23" t="n">
-        <v>2229.779315956256</v>
+        <v>1815.8977251864</v>
       </c>
       <c r="V23" t="n">
-        <v>2229.779315956256</v>
+        <v>1458.408310312649</v>
       </c>
       <c r="W23" t="n">
-        <v>2229.779315956256</v>
+        <v>1458.408310312649</v>
       </c>
       <c r="X23" t="n">
-        <v>1818.059317124003</v>
+        <v>1458.408310312649</v>
       </c>
       <c r="Y23" t="n">
-        <v>1818.059317124003</v>
+        <v>1458.408310312649</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>181.0208027766582</v>
       </c>
       <c r="G24" t="n">
-        <v>88.10450696589292</v>
+        <v>88.1045069658929</v>
       </c>
       <c r="H24" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="I24" t="n">
-        <v>68.08712653834888</v>
+        <v>91.54443238276068</v>
       </c>
       <c r="J24" t="n">
-        <v>311.2289533311906</v>
+        <v>176.4673798234149</v>
       </c>
       <c r="K24" t="n">
-        <v>469.0759558531256</v>
+        <v>334.3143823453498</v>
       </c>
       <c r="L24" t="n">
-        <v>688.8481432115784</v>
+        <v>554.0865697038025</v>
       </c>
       <c r="M24" t="n">
-        <v>948.457410952491</v>
+        <v>813.6958374447149</v>
       </c>
       <c r="N24" t="n">
-        <v>1217.279168317829</v>
+        <v>1082.517594810053</v>
       </c>
       <c r="O24" t="n">
-        <v>1459.58784099411</v>
+        <v>1324.826267486334</v>
       </c>
       <c r="P24" t="n">
-        <v>1650.920289862229</v>
+        <v>1516.158716354453</v>
       </c>
       <c r="Q24" t="n">
-        <v>1770.709095530002</v>
+        <v>1665.253595245096</v>
       </c>
       <c r="R24" t="n">
         <v>1816.490790717086</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1090.784970830006</v>
+        <v>580.7424276363359</v>
       </c>
       <c r="C25" t="n">
-        <v>918.812407708922</v>
+        <v>580.7424276363359</v>
       </c>
       <c r="D25" t="n">
-        <v>755.4956348356927</v>
+        <v>417.4256547631066</v>
       </c>
       <c r="E25" t="n">
-        <v>589.2874289885463</v>
+        <v>417.4256547631066</v>
       </c>
       <c r="F25" t="n">
         <v>417.4256547631066</v>
@@ -6144,55 +6144,55 @@
         <v>116.8046015565935</v>
       </c>
       <c r="I25" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="J25" t="n">
-        <v>169.2847365054938</v>
+        <v>91.36301985727282</v>
       </c>
       <c r="K25" t="n">
-        <v>504.4010436258125</v>
+        <v>179.1967178635694</v>
       </c>
       <c r="L25" t="n">
-        <v>998.0465227078257</v>
+        <v>595.1783635224771</v>
       </c>
       <c r="M25" t="n">
-        <v>1122.206622511296</v>
+        <v>1132.873943788769</v>
       </c>
       <c r="N25" t="n">
-        <v>1244.691320612624</v>
+        <v>1653.391564731977</v>
       </c>
       <c r="O25" t="n">
-        <v>1732.227211386156</v>
+        <v>2140.927455505509</v>
       </c>
       <c r="P25" t="n">
-        <v>2135.867436100409</v>
+        <v>2231.811475646454</v>
       </c>
       <c r="Q25" t="n">
-        <v>2285.701846394944</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="R25" t="n">
-        <v>2281.541529925851</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="S25" t="n">
-        <v>2128.025506919194</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="T25" t="n">
-        <v>2128.025506919194</v>
+        <v>2076.511365205954</v>
       </c>
       <c r="U25" t="n">
-        <v>1847.893074145552</v>
+        <v>1796.378932432312</v>
       </c>
       <c r="V25" t="n">
-        <v>1847.893074145552</v>
+        <v>1514.667465040341</v>
       </c>
       <c r="W25" t="n">
-        <v>1573.040670318065</v>
+        <v>1239.815061212854</v>
       </c>
       <c r="X25" t="n">
-        <v>1507.29370785233</v>
+        <v>997.2511646586595</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.950939542072</v>
+        <v>770.9083963484015</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2285.701846394943</v>
+        <v>997.1485098288523</v>
       </c>
       <c r="C26" t="n">
-        <v>1858.801116408243</v>
+        <v>997.1485098288523</v>
       </c>
       <c r="D26" t="n">
-        <v>1435.508495593243</v>
+        <v>997.1485098288523</v>
       </c>
       <c r="E26" t="n">
-        <v>1009.531555741101</v>
+        <v>724.023301240843</v>
       </c>
       <c r="F26" t="n">
-        <v>584.4073739305012</v>
+        <v>724.023301240843</v>
       </c>
       <c r="G26" t="n">
         <v>321.8101747025099</v>
@@ -6223,16 +6223,16 @@
         <v>45.71403692789886</v>
       </c>
       <c r="I26" t="n">
-        <v>91.84074928306302</v>
+        <v>91.84074928306313</v>
       </c>
       <c r="J26" t="n">
         <v>239.5604597472881</v>
       </c>
       <c r="K26" t="n">
-        <v>469.1990225635043</v>
+        <v>469.1990225635042</v>
       </c>
       <c r="L26" t="n">
-        <v>760.0825020696884</v>
+        <v>760.0825020696882</v>
       </c>
       <c r="M26" t="n">
         <v>1088.892703851147</v>
@@ -6253,25 +6253,25 @@
         <v>2285.701846394943</v>
       </c>
       <c r="S26" t="n">
-        <v>2285.701846394943</v>
+        <v>2229.779315956255</v>
       </c>
       <c r="T26" t="n">
-        <v>2285.701846394943</v>
+        <v>2018.160029281523</v>
       </c>
       <c r="U26" t="n">
-        <v>2285.701846394943</v>
+        <v>1759.975194747713</v>
       </c>
       <c r="V26" t="n">
-        <v>2285.701846394943</v>
+        <v>1402.485779873962</v>
       </c>
       <c r="W26" t="n">
-        <v>2285.701846394943</v>
+        <v>1402.485779873962</v>
       </c>
       <c r="X26" t="n">
-        <v>2285.701846394943</v>
+        <v>1402.485779873962</v>
       </c>
       <c r="Y26" t="n">
-        <v>2285.701846394943</v>
+        <v>997.1485098288523</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>45.71403692789886</v>
       </c>
       <c r="I27" t="n">
-        <v>68.08712653834885</v>
+        <v>91.54443238276068</v>
       </c>
       <c r="J27" t="n">
-        <v>311.2289533311906</v>
+        <v>176.4673798234149</v>
       </c>
       <c r="K27" t="n">
-        <v>469.0759558531256</v>
+        <v>334.3143823453498</v>
       </c>
       <c r="L27" t="n">
-        <v>688.8481432115784</v>
+        <v>554.0865697038025</v>
       </c>
       <c r="M27" t="n">
-        <v>948.457410952491</v>
+        <v>813.6958374447149</v>
       </c>
       <c r="N27" t="n">
-        <v>1217.279168317829</v>
+        <v>1082.517594810053</v>
       </c>
       <c r="O27" t="n">
-        <v>1459.58784099411</v>
+        <v>1324.826267486334</v>
       </c>
       <c r="P27" t="n">
-        <v>1650.920289862229</v>
+        <v>1516.158716354453</v>
       </c>
       <c r="Q27" t="n">
-        <v>1770.709095530002</v>
+        <v>1665.253595245096</v>
       </c>
       <c r="R27" t="n">
         <v>1816.490790717086</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1090.784970830006</v>
+        <v>853.4862003541649</v>
       </c>
       <c r="C28" t="n">
-        <v>918.812407708922</v>
+        <v>681.5136372330809</v>
       </c>
       <c r="D28" t="n">
-        <v>755.4956348356927</v>
+        <v>518.1968643598516</v>
       </c>
       <c r="E28" t="n">
-        <v>589.2874289885463</v>
+        <v>518.1968643598516</v>
       </c>
       <c r="F28" t="n">
-        <v>417.4256547631066</v>
+        <v>346.335090134412</v>
       </c>
       <c r="G28" t="n">
-        <v>252.1223067016596</v>
+        <v>181.0317420729649</v>
       </c>
       <c r="H28" t="n">
-        <v>116.8046015565935</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="I28" t="n">
         <v>45.71403692789886</v>
@@ -6387,19 +6387,19 @@
         <v>169.2847365054937</v>
       </c>
       <c r="K28" t="n">
-        <v>326.54828065373</v>
+        <v>504.4010436258123</v>
       </c>
       <c r="L28" t="n">
-        <v>443.8048661445782</v>
+        <v>942.617064875973</v>
       </c>
       <c r="M28" t="n">
-        <v>981.5004464108702</v>
+        <v>1066.777164679443</v>
       </c>
       <c r="N28" t="n">
-        <v>1502.018067354079</v>
+        <v>1189.261862780771</v>
       </c>
       <c r="O28" t="n">
-        <v>1989.55395812761</v>
+        <v>1676.797753554303</v>
       </c>
       <c r="P28" t="n">
         <v>2080.437978268556</v>
@@ -6414,22 +6414,22 @@
         <v>2285.701846394943</v>
       </c>
       <c r="T28" t="n">
-        <v>2285.701846394943</v>
+        <v>2074.402734096296</v>
       </c>
       <c r="U28" t="n">
-        <v>2005.569413621301</v>
+        <v>1794.270301322654</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.85794622933</v>
+        <v>1512.558833930683</v>
       </c>
       <c r="W28" t="n">
-        <v>1723.85794622933</v>
+        <v>1512.558833930683</v>
       </c>
       <c r="X28" t="n">
-        <v>1507.29370785233</v>
+        <v>1269.994937376488</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.950939542072</v>
+        <v>1043.65216906623</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1716.593144846461</v>
+        <v>1202.331377524492</v>
       </c>
       <c r="C29" t="n">
-        <v>1716.593144846461</v>
+        <v>775.4306475377923</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.124422903585</v>
+        <v>352.1380267227926</v>
       </c>
       <c r="E29" t="n">
-        <v>1149.147483051443</v>
+        <v>352.1380267227926</v>
       </c>
       <c r="F29" t="n">
-        <v>724.023301240843</v>
+        <v>352.1380267227926</v>
       </c>
       <c r="G29" t="n">
-        <v>321.8101747025099</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="H29" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="I29" t="n">
-        <v>91.84074928306302</v>
+        <v>91.84074928306299</v>
       </c>
       <c r="J29" t="n">
-        <v>239.5604597472881</v>
+        <v>239.560459747288</v>
       </c>
       <c r="K29" t="n">
         <v>469.1990225635043</v>
       </c>
       <c r="L29" t="n">
-        <v>760.0825020696884</v>
+        <v>760.0825020696882</v>
       </c>
       <c r="M29" t="n">
-        <v>1088.892703851147</v>
+        <v>1088.892703851146</v>
       </c>
       <c r="N29" t="n">
-        <v>1423.773142319472</v>
+        <v>1423.773142319471</v>
       </c>
       <c r="O29" t="n">
-        <v>1737.824264321171</v>
+        <v>1737.824264321169</v>
       </c>
       <c r="P29" t="n">
-        <v>2000.253218480541</v>
+        <v>2000.25321848054</v>
       </c>
       <c r="Q29" t="n">
-        <v>2189.49836261031</v>
+        <v>2189.498362610308</v>
       </c>
       <c r="R29" t="n">
-        <v>2285.701846394944</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="S29" t="n">
-        <v>2285.701846394944</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="T29" t="n">
-        <v>2074.082559720212</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="U29" t="n">
-        <v>2074.082559720212</v>
+        <v>2027.517011861132</v>
       </c>
       <c r="V29" t="n">
-        <v>1716.593144846461</v>
+        <v>2027.517011861132</v>
       </c>
       <c r="W29" t="n">
-        <v>1716.593144846461</v>
+        <v>2027.517011861132</v>
       </c>
       <c r="X29" t="n">
-        <v>1716.593144846461</v>
+        <v>2027.517011861132</v>
       </c>
       <c r="Y29" t="n">
-        <v>1716.593144846461</v>
+        <v>1622.179741816022</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>181.0208027766582</v>
       </c>
       <c r="G30" t="n">
-        <v>88.10450696589292</v>
+        <v>88.1045069658929</v>
       </c>
       <c r="H30" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="I30" t="n">
-        <v>68.08712653834888</v>
+        <v>91.54443238276068</v>
       </c>
       <c r="J30" t="n">
-        <v>311.2289533311906</v>
+        <v>176.4673798234149</v>
       </c>
       <c r="K30" t="n">
-        <v>469.0759558531256</v>
+        <v>334.3143823453498</v>
       </c>
       <c r="L30" t="n">
-        <v>688.8481432115784</v>
+        <v>554.0865697038025</v>
       </c>
       <c r="M30" t="n">
-        <v>948.457410952491</v>
+        <v>813.6958374447149</v>
       </c>
       <c r="N30" t="n">
-        <v>1217.279168317829</v>
+        <v>1082.517594810053</v>
       </c>
       <c r="O30" t="n">
-        <v>1459.58784099411</v>
+        <v>1324.826267486334</v>
       </c>
       <c r="P30" t="n">
-        <v>1650.920289862229</v>
+        <v>1516.158716354453</v>
       </c>
       <c r="Q30" t="n">
-        <v>1770.709095530002</v>
+        <v>1665.253595245096</v>
       </c>
       <c r="R30" t="n">
         <v>1816.490790717086</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>392.9917867830285</v>
+        <v>789.9329088253235</v>
       </c>
       <c r="C31" t="n">
-        <v>221.0192236619446</v>
+        <v>617.9603457042394</v>
       </c>
       <c r="D31" t="n">
-        <v>211.0173849893459</v>
+        <v>617.9603457042394</v>
       </c>
       <c r="E31" t="n">
-        <v>211.0173849893459</v>
+        <v>451.752139857093</v>
       </c>
       <c r="F31" t="n">
-        <v>211.0173849893459</v>
+        <v>346.335090134412</v>
       </c>
       <c r="G31" t="n">
-        <v>45.71403692789888</v>
+        <v>181.0317420729649</v>
       </c>
       <c r="H31" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="I31" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="J31" t="n">
-        <v>169.2847365054938</v>
+        <v>169.2847365054937</v>
       </c>
       <c r="K31" t="n">
-        <v>504.4010436258125</v>
+        <v>504.4010436258123</v>
       </c>
       <c r="L31" t="n">
-        <v>998.0465227078257</v>
+        <v>998.0465227078255</v>
       </c>
       <c r="M31" t="n">
         <v>1122.206622511296</v>
       </c>
       <c r="N31" t="n">
-        <v>1244.691320612624</v>
+        <v>1340.63536015867</v>
       </c>
       <c r="O31" t="n">
-        <v>1732.227211386156</v>
+        <v>1828.171250932201</v>
       </c>
       <c r="P31" t="n">
-        <v>2135.867436100409</v>
+        <v>2231.811475646454</v>
       </c>
       <c r="Q31" t="n">
-        <v>2285.701846394944</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="R31" t="n">
-        <v>2281.541529925851</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="S31" t="n">
-        <v>2128.025506919194</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="T31" t="n">
-        <v>1888.760724352647</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="U31" t="n">
-        <v>1608.628291579005</v>
+        <v>2005.5694136213</v>
       </c>
       <c r="V31" t="n">
-        <v>1326.916824187034</v>
+        <v>1723.857946229329</v>
       </c>
       <c r="W31" t="n">
-        <v>1052.064420359547</v>
+        <v>1449.005542401842</v>
       </c>
       <c r="X31" t="n">
-        <v>809.5005238053521</v>
+        <v>1206.441645847647</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.1577554950942</v>
+        <v>980.0988775373892</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1531.82108182154</v>
+        <v>469.0066577428986</v>
       </c>
       <c r="C32" t="n">
-        <v>1104.92035183484</v>
+        <v>469.0066577428986</v>
       </c>
       <c r="D32" t="n">
-        <v>1104.92035183484</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="E32" t="n">
-        <v>678.943411982698</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="F32" t="n">
-        <v>678.943411982698</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="G32" t="n">
-        <v>276.7302854443648</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="H32" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="I32" t="n">
         <v>91.84074928306313</v>
       </c>
       <c r="J32" t="n">
-        <v>239.5604597472882</v>
+        <v>239.5604597472881</v>
       </c>
       <c r="K32" t="n">
-        <v>469.1990225635045</v>
+        <v>469.1990225635042</v>
       </c>
       <c r="L32" t="n">
-        <v>760.0825020696886</v>
+        <v>760.0825020696882</v>
       </c>
       <c r="M32" t="n">
         <v>1088.892703851147</v>
       </c>
       <c r="N32" t="n">
-        <v>1423.773142319473</v>
+        <v>1423.773142319472</v>
       </c>
       <c r="O32" t="n">
         <v>1737.82426432117</v>
       </c>
       <c r="P32" t="n">
-        <v>2000.253218480541</v>
+        <v>2000.25321848054</v>
       </c>
       <c r="Q32" t="n">
-        <v>2189.49836261031</v>
+        <v>2189.498362610309</v>
       </c>
       <c r="R32" t="n">
-        <v>2285.701846394944</v>
+        <v>2285.701846394943</v>
       </c>
       <c r="S32" t="n">
-        <v>2285.701846394944</v>
+        <v>2229.779315956255</v>
       </c>
       <c r="T32" t="n">
-        <v>2285.701846394944</v>
+        <v>2018.160029281523</v>
       </c>
       <c r="U32" t="n">
-        <v>2285.701846394944</v>
+        <v>1759.975194747713</v>
       </c>
       <c r="V32" t="n">
-        <v>1928.212431521193</v>
+        <v>1402.485779873962</v>
       </c>
       <c r="W32" t="n">
-        <v>1531.82108182154</v>
+        <v>1006.094430174309</v>
       </c>
       <c r="X32" t="n">
-        <v>1531.82108182154</v>
+        <v>594.3744313420561</v>
       </c>
       <c r="Y32" t="n">
-        <v>1531.82108182154</v>
+        <v>469.0066577428986</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>181.0208027766582</v>
       </c>
       <c r="G33" t="n">
-        <v>88.10450696589292</v>
+        <v>88.10450696589291</v>
       </c>
       <c r="H33" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="I33" t="n">
-        <v>68.08712653834888</v>
+        <v>91.54443238276068</v>
       </c>
       <c r="J33" t="n">
-        <v>311.2289533311906</v>
+        <v>176.4673798234149</v>
       </c>
       <c r="K33" t="n">
-        <v>469.0759558531256</v>
+        <v>334.3143823453498</v>
       </c>
       <c r="L33" t="n">
-        <v>688.8481432115784</v>
+        <v>554.0865697038025</v>
       </c>
       <c r="M33" t="n">
-        <v>948.457410952491</v>
+        <v>813.6958374447149</v>
       </c>
       <c r="N33" t="n">
-        <v>1217.279168317829</v>
+        <v>1082.517594810053</v>
       </c>
       <c r="O33" t="n">
-        <v>1459.58784099411</v>
+        <v>1324.826267486334</v>
       </c>
       <c r="P33" t="n">
-        <v>1650.920289862229</v>
+        <v>1516.158716354453</v>
       </c>
       <c r="Q33" t="n">
-        <v>1770.709095530002</v>
+        <v>1665.253595245096</v>
       </c>
       <c r="R33" t="n">
         <v>1816.490790717086</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>392.9917867830285</v>
+        <v>924.5767649828596</v>
       </c>
       <c r="C34" t="n">
-        <v>221.0192236619446</v>
+        <v>752.6042018617756</v>
       </c>
       <c r="D34" t="n">
-        <v>211.0173849893459</v>
+        <v>589.2874289885463</v>
       </c>
       <c r="E34" t="n">
-        <v>211.0173849893459</v>
+        <v>589.2874289885463</v>
       </c>
       <c r="F34" t="n">
-        <v>211.0173849893459</v>
+        <v>417.4256547631066</v>
       </c>
       <c r="G34" t="n">
-        <v>45.71403692789888</v>
+        <v>252.1223067016596</v>
       </c>
       <c r="H34" t="n">
-        <v>45.71403692789888</v>
+        <v>116.8046015565935</v>
       </c>
       <c r="I34" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="J34" t="n">
-        <v>169.2847365054938</v>
+        <v>91.36301985727283</v>
       </c>
       <c r="K34" t="n">
-        <v>504.4010436258125</v>
+        <v>179.1967178635694</v>
       </c>
       <c r="L34" t="n">
-        <v>998.0465227078257</v>
+        <v>672.8421969455826</v>
       </c>
       <c r="M34" t="n">
-        <v>1122.206622511296</v>
+        <v>1210.537777211875</v>
       </c>
       <c r="N34" t="n">
-        <v>1244.691320612624</v>
+        <v>1731.055398155083</v>
       </c>
       <c r="O34" t="n">
-        <v>1732.227211386156</v>
+        <v>2140.927455505509</v>
       </c>
       <c r="P34" t="n">
-        <v>2135.867436100409</v>
+        <v>2231.811475646455</v>
       </c>
       <c r="Q34" t="n">
-        <v>2285.701846394944</v>
+        <v>2285.701846394943</v>
       </c>
       <c r="R34" t="n">
-        <v>2281.541529925851</v>
+        <v>2285.701846394943</v>
       </c>
       <c r="S34" t="n">
-        <v>2128.025506919194</v>
+        <v>2132.185823388287</v>
       </c>
       <c r="T34" t="n">
-        <v>1888.760724352647</v>
+        <v>1892.921040821739</v>
       </c>
       <c r="U34" t="n">
-        <v>1608.628291579005</v>
+        <v>1615.93790583267</v>
       </c>
       <c r="V34" t="n">
-        <v>1326.916824187034</v>
+        <v>1615.93790583267</v>
       </c>
       <c r="W34" t="n">
-        <v>1052.064420359547</v>
+        <v>1341.085502005183</v>
       </c>
       <c r="X34" t="n">
-        <v>809.5005238053521</v>
+        <v>1341.085502005183</v>
       </c>
       <c r="Y34" t="n">
-        <v>583.1577554950942</v>
+        <v>1114.742733694925</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1483.973226650181</v>
+        <v>432.7109015843364</v>
       </c>
       <c r="C35" t="n">
-        <v>1483.973226650181</v>
+        <v>432.7109015843364</v>
       </c>
       <c r="D35" t="n">
-        <v>1483.973226650181</v>
+        <v>321.8101747025099</v>
       </c>
       <c r="E35" t="n">
-        <v>1057.996286798038</v>
+        <v>321.8101747025099</v>
       </c>
       <c r="F35" t="n">
-        <v>632.8721049874387</v>
+        <v>321.8101747025099</v>
       </c>
       <c r="G35" t="n">
-        <v>230.6589784491055</v>
+        <v>321.8101747025099</v>
       </c>
       <c r="H35" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="I35" t="n">
-        <v>91.84074928306313</v>
+        <v>91.84074928306268</v>
       </c>
       <c r="J35" t="n">
-        <v>239.5604597472882</v>
+        <v>239.5604597472875</v>
       </c>
       <c r="K35" t="n">
-        <v>469.1990225635045</v>
+        <v>469.1990225635037</v>
       </c>
       <c r="L35" t="n">
-        <v>760.0825020696886</v>
+        <v>760.0825020696877</v>
       </c>
       <c r="M35" t="n">
-        <v>1088.892703851147</v>
+        <v>1088.892703851146</v>
       </c>
       <c r="N35" t="n">
-        <v>1423.773142319473</v>
+        <v>1423.773142319471</v>
       </c>
       <c r="O35" t="n">
-        <v>1737.82426432117</v>
+        <v>1737.824264321169</v>
       </c>
       <c r="P35" t="n">
-        <v>2000.253218480541</v>
+        <v>2000.25321848054</v>
       </c>
       <c r="Q35" t="n">
-        <v>2189.49836261031</v>
+        <v>2189.498362610309</v>
       </c>
       <c r="R35" t="n">
-        <v>2285.701846394944</v>
+        <v>2285.701846394943</v>
       </c>
       <c r="S35" t="n">
-        <v>2285.701846394944</v>
+        <v>2229.779315956255</v>
       </c>
       <c r="T35" t="n">
-        <v>2285.701846394944</v>
+        <v>2018.160029281523</v>
       </c>
       <c r="U35" t="n">
-        <v>2285.701846394944</v>
+        <v>2018.160029281523</v>
       </c>
       <c r="V35" t="n">
-        <v>2285.701846394944</v>
+        <v>1660.670614407772</v>
       </c>
       <c r="W35" t="n">
-        <v>1889.310496695291</v>
+        <v>1264.279264708119</v>
       </c>
       <c r="X35" t="n">
-        <v>1889.310496695291</v>
+        <v>852.5592658758665</v>
       </c>
       <c r="Y35" t="n">
-        <v>1483.973226650181</v>
+        <v>852.5592658758665</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>181.0208027766582</v>
       </c>
       <c r="G36" t="n">
-        <v>88.10450696589292</v>
+        <v>88.10450696589291</v>
       </c>
       <c r="H36" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="I36" t="n">
-        <v>68.08712653834888</v>
+        <v>91.54443238276068</v>
       </c>
       <c r="J36" t="n">
-        <v>311.2289533311906</v>
+        <v>176.4673798234149</v>
       </c>
       <c r="K36" t="n">
-        <v>469.0759558531256</v>
+        <v>334.3143823453498</v>
       </c>
       <c r="L36" t="n">
-        <v>688.8481432115784</v>
+        <v>554.0865697038025</v>
       </c>
       <c r="M36" t="n">
-        <v>948.457410952491</v>
+        <v>813.6958374447149</v>
       </c>
       <c r="N36" t="n">
-        <v>1217.279168317829</v>
+        <v>1082.517594810053</v>
       </c>
       <c r="O36" t="n">
-        <v>1459.58784099411</v>
+        <v>1324.826267486334</v>
       </c>
       <c r="P36" t="n">
-        <v>1650.920289862229</v>
+        <v>1516.158716354453</v>
       </c>
       <c r="Q36" t="n">
-        <v>1770.709095530002</v>
+        <v>1665.253595245096</v>
       </c>
       <c r="R36" t="n">
         <v>1816.490790717086</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>678.863570644093</v>
+        <v>759.2734169214125</v>
       </c>
       <c r="C37" t="n">
-        <v>506.891007523009</v>
+        <v>587.3008538003285</v>
       </c>
       <c r="D37" t="n">
-        <v>506.891007523009</v>
+        <v>423.9840809270992</v>
       </c>
       <c r="E37" t="n">
-        <v>340.6828016758625</v>
+        <v>423.9840809270992</v>
       </c>
       <c r="F37" t="n">
-        <v>340.6828016758625</v>
+        <v>252.1223067016596</v>
       </c>
       <c r="G37" t="n">
         <v>252.1223067016596</v>
@@ -7092,55 +7092,55 @@
         <v>116.8046015565935</v>
       </c>
       <c r="I37" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="J37" t="n">
-        <v>169.2847365054938</v>
+        <v>113.8552786736412</v>
       </c>
       <c r="K37" t="n">
-        <v>504.4010436258125</v>
+        <v>448.9715857939598</v>
       </c>
       <c r="L37" t="n">
-        <v>998.0465227078257</v>
+        <v>942.617064875973</v>
       </c>
       <c r="M37" t="n">
-        <v>1218.150662057343</v>
+        <v>1066.777164679443</v>
       </c>
       <c r="N37" t="n">
-        <v>1340.635360158671</v>
+        <v>1189.261862780771</v>
       </c>
       <c r="O37" t="n">
-        <v>1828.171250932202</v>
+        <v>1676.797753554303</v>
       </c>
       <c r="P37" t="n">
-        <v>2231.811475646456</v>
+        <v>2080.437978268556</v>
       </c>
       <c r="Q37" t="n">
-        <v>2285.701846394944</v>
+        <v>2285.701846394943</v>
       </c>
       <c r="R37" t="n">
-        <v>2285.701846394944</v>
+        <v>2281.54152992585</v>
       </c>
       <c r="S37" t="n">
-        <v>2132.185823388288</v>
+        <v>2281.54152992585</v>
       </c>
       <c r="T37" t="n">
-        <v>1892.92104082174</v>
+        <v>2042.276747359302</v>
       </c>
       <c r="U37" t="n">
-        <v>1612.788608048098</v>
+        <v>1784.743953005323</v>
       </c>
       <c r="V37" t="n">
-        <v>1612.788608048098</v>
+        <v>1503.032485613352</v>
       </c>
       <c r="W37" t="n">
-        <v>1337.936204220611</v>
+        <v>1228.180081785865</v>
       </c>
       <c r="X37" t="n">
-        <v>1095.372307666417</v>
+        <v>985.6161852316704</v>
       </c>
       <c r="Y37" t="n">
-        <v>869.0295393561587</v>
+        <v>759.2734169214125</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2027.517011861134</v>
+        <v>1299.952075263532</v>
       </c>
       <c r="C38" t="n">
-        <v>1600.616281874434</v>
+        <v>873.0513452768319</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.323661059434</v>
+        <v>873.0513452768319</v>
       </c>
       <c r="E38" t="n">
-        <v>751.3467212072916</v>
+        <v>873.0513452768319</v>
       </c>
       <c r="F38" t="n">
-        <v>326.2225393966918</v>
+        <v>447.9271634662321</v>
       </c>
       <c r="G38" t="n">
-        <v>321.8101747025099</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="H38" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="I38" t="n">
-        <v>91.84074928306336</v>
+        <v>91.84074928306268</v>
       </c>
       <c r="J38" t="n">
-        <v>239.5604597472884</v>
+        <v>239.5604597472875</v>
       </c>
       <c r="K38" t="n">
-        <v>469.1990225635047</v>
+        <v>469.1990225635037</v>
       </c>
       <c r="L38" t="n">
-        <v>760.0825020696891</v>
+        <v>760.0825020696877</v>
       </c>
       <c r="M38" t="n">
-        <v>1088.892703851147</v>
+        <v>1088.892703851146</v>
       </c>
       <c r="N38" t="n">
-        <v>1423.773142319473</v>
+        <v>1423.773142319471</v>
       </c>
       <c r="O38" t="n">
-        <v>1737.824264321171</v>
+        <v>1737.824264321169</v>
       </c>
       <c r="P38" t="n">
-        <v>2000.253218480541</v>
+        <v>2000.25321848054</v>
       </c>
       <c r="Q38" t="n">
-        <v>2189.49836261031</v>
+        <v>2189.498362610309</v>
       </c>
       <c r="R38" t="n">
-        <v>2285.701846394944</v>
+        <v>2285.701846394943</v>
       </c>
       <c r="S38" t="n">
-        <v>2285.701846394944</v>
+        <v>2285.701846394943</v>
       </c>
       <c r="T38" t="n">
-        <v>2285.701846394944</v>
+        <v>2101.680695008295</v>
       </c>
       <c r="U38" t="n">
-        <v>2027.517011861134</v>
+        <v>2101.680695008295</v>
       </c>
       <c r="V38" t="n">
-        <v>2027.517011861134</v>
+        <v>2101.680695008295</v>
       </c>
       <c r="W38" t="n">
-        <v>2027.517011861134</v>
+        <v>1705.289345308641</v>
       </c>
       <c r="X38" t="n">
-        <v>2027.517011861134</v>
+        <v>1705.289345308641</v>
       </c>
       <c r="Y38" t="n">
-        <v>2027.517011861134</v>
+        <v>1299.952075263532</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>181.0208027766582</v>
       </c>
       <c r="G39" t="n">
-        <v>88.10450696589292</v>
+        <v>88.10450696589291</v>
       </c>
       <c r="H39" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="I39" t="n">
-        <v>68.08712653834888</v>
+        <v>68.08712653834884</v>
       </c>
       <c r="J39" t="n">
-        <v>311.2289533311906</v>
+        <v>153.010073979003</v>
       </c>
       <c r="K39" t="n">
-        <v>469.0759558531256</v>
+        <v>310.857076500938</v>
       </c>
       <c r="L39" t="n">
-        <v>688.8481432115784</v>
+        <v>530.6292638593907</v>
       </c>
       <c r="M39" t="n">
-        <v>948.457410952491</v>
+        <v>790.2385316003031</v>
       </c>
       <c r="N39" t="n">
-        <v>1217.279168317829</v>
+        <v>1059.060288965641</v>
       </c>
       <c r="O39" t="n">
-        <v>1459.58784099411</v>
+        <v>1301.368961641922</v>
       </c>
       <c r="P39" t="n">
-        <v>1650.920289862229</v>
+        <v>1492.701410510041</v>
       </c>
       <c r="Q39" t="n">
         <v>1770.709095530002</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>884.3767010562453</v>
+        <v>1090.784970830006</v>
       </c>
       <c r="C40" t="n">
-        <v>712.4041379351613</v>
+        <v>918.812407708922</v>
       </c>
       <c r="D40" t="n">
-        <v>549.087365061932</v>
+        <v>755.4956348356927</v>
       </c>
       <c r="E40" t="n">
-        <v>382.8791592147855</v>
+        <v>589.2874289885463</v>
       </c>
       <c r="F40" t="n">
-        <v>211.0173849893459</v>
+        <v>417.4256547631066</v>
       </c>
       <c r="G40" t="n">
-        <v>45.71403692789888</v>
+        <v>252.1223067016596</v>
       </c>
       <c r="H40" t="n">
-        <v>45.71403692789888</v>
+        <v>116.8046015565935</v>
       </c>
       <c r="I40" t="n">
-        <v>45.71403692789888</v>
+        <v>45.71403692789886</v>
       </c>
       <c r="J40" t="n">
-        <v>169.2847365054938</v>
+        <v>169.2847365054937</v>
       </c>
       <c r="K40" t="n">
-        <v>504.4010436258125</v>
+        <v>448.9715857939598</v>
       </c>
       <c r="L40" t="n">
-        <v>998.0465227078257</v>
+        <v>942.617064875973</v>
       </c>
       <c r="M40" t="n">
-        <v>1122.206622511296</v>
+        <v>1066.777164679443</v>
       </c>
       <c r="N40" t="n">
-        <v>1642.724243454504</v>
+        <v>1189.261862780771</v>
       </c>
       <c r="O40" t="n">
-        <v>1752.557809924833</v>
+        <v>1676.797753554303</v>
       </c>
       <c r="P40" t="n">
-        <v>2156.198034639086</v>
+        <v>2080.437978268556</v>
       </c>
       <c r="Q40" t="n">
-        <v>2285.701846394944</v>
+        <v>2285.701846394943</v>
       </c>
       <c r="R40" t="n">
-        <v>2281.541529925851</v>
+        <v>2285.701846394943</v>
       </c>
       <c r="S40" t="n">
-        <v>2128.025506919194</v>
+        <v>2285.701846394943</v>
       </c>
       <c r="T40" t="n">
-        <v>2128.025506919194</v>
+        <v>2117.647243535172</v>
       </c>
       <c r="U40" t="n">
-        <v>2100.013205852222</v>
+        <v>1837.51481076153</v>
       </c>
       <c r="V40" t="n">
-        <v>1818.301738460251</v>
+        <v>1555.803343369559</v>
       </c>
       <c r="W40" t="n">
-        <v>1543.449334632764</v>
+        <v>1280.950939542072</v>
       </c>
       <c r="X40" t="n">
-        <v>1300.885438078569</v>
+        <v>1280.950939542072</v>
       </c>
       <c r="Y40" t="n">
-        <v>1074.542669768311</v>
+        <v>1280.950939542072</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1466.952631037395</v>
+        <v>1606.440030449269</v>
       </c>
       <c r="C41" t="n">
-        <v>1040.051901050695</v>
+        <v>1179.539300462569</v>
       </c>
       <c r="D41" t="n">
-        <v>1040.051901050695</v>
+        <v>1179.539300462569</v>
       </c>
       <c r="E41" t="n">
-        <v>614.0749611985526</v>
+        <v>753.5623606104269</v>
       </c>
       <c r="F41" t="n">
-        <v>188.9507793879528</v>
+        <v>328.4381787998271</v>
       </c>
       <c r="G41" t="n">
-        <v>188.9507793879528</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="H41" t="n">
-        <v>45.71403692789887</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="I41" t="n">
-        <v>91.84074928306302</v>
+        <v>91.84074928306299</v>
       </c>
       <c r="J41" t="n">
-        <v>239.5604597472881</v>
+        <v>239.560459747288</v>
       </c>
       <c r="K41" t="n">
         <v>469.1990225635043</v>
       </c>
       <c r="L41" t="n">
-        <v>760.0825020696884</v>
+        <v>760.0825020696882</v>
       </c>
       <c r="M41" t="n">
-        <v>1088.892703851147</v>
+        <v>1088.892703851146</v>
       </c>
       <c r="N41" t="n">
-        <v>1423.773142319472</v>
+        <v>1423.773142319471</v>
       </c>
       <c r="O41" t="n">
-        <v>1737.824264321171</v>
+        <v>1737.824264321169</v>
       </c>
       <c r="P41" t="n">
-        <v>2000.253218480541</v>
+        <v>2000.25321848054</v>
       </c>
       <c r="Q41" t="n">
-        <v>2189.498362610309</v>
+        <v>2189.498362610308</v>
       </c>
       <c r="R41" t="n">
-        <v>2285.701846394943</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="S41" t="n">
-        <v>2229.779315956255</v>
+        <v>2229.779315956254</v>
       </c>
       <c r="T41" t="n">
-        <v>2229.779315956255</v>
+        <v>2018.160029281522</v>
       </c>
       <c r="U41" t="n">
-        <v>2229.779315956255</v>
+        <v>2018.160029281522</v>
       </c>
       <c r="V41" t="n">
-        <v>1872.289901082505</v>
+        <v>2018.160029281522</v>
       </c>
       <c r="W41" t="n">
-        <v>1872.289901082505</v>
+        <v>2018.160029281522</v>
       </c>
       <c r="X41" t="n">
-        <v>1872.289901082505</v>
+        <v>1606.440030449269</v>
       </c>
       <c r="Y41" t="n">
-        <v>1466.952631037395</v>
+        <v>1606.440030449269</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>181.0208027766582</v>
       </c>
       <c r="G42" t="n">
-        <v>88.10450696589291</v>
+        <v>88.1045069658929</v>
       </c>
       <c r="H42" t="n">
-        <v>45.71403692789887</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="I42" t="n">
-        <v>91.5444323827607</v>
+        <v>91.54443238276068</v>
       </c>
       <c r="J42" t="n">
         <v>176.4673798234149</v>
       </c>
       <c r="K42" t="n">
-        <v>363.6204555682195</v>
+        <v>334.3143823453498</v>
       </c>
       <c r="L42" t="n">
-        <v>583.3926429266724</v>
+        <v>554.0865697038025</v>
       </c>
       <c r="M42" t="n">
-        <v>843.001910667585</v>
+        <v>813.6958374447149</v>
       </c>
       <c r="N42" t="n">
-        <v>1111.823668032923</v>
+        <v>1082.517594810053</v>
       </c>
       <c r="O42" t="n">
-        <v>1354.132340709204</v>
+        <v>1324.826267486334</v>
       </c>
       <c r="P42" t="n">
-        <v>1545.464789577323</v>
+        <v>1516.158716354453</v>
       </c>
       <c r="Q42" t="n">
         <v>1665.253595245096</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>524.8660794194885</v>
+        <v>672.004507079607</v>
       </c>
       <c r="C43" t="n">
-        <v>352.8935162984045</v>
+        <v>590.1922867742456</v>
       </c>
       <c r="D43" t="n">
-        <v>352.8935162984045</v>
+        <v>590.1922867742456</v>
       </c>
       <c r="E43" t="n">
-        <v>352.8935162984045</v>
+        <v>423.9840809270992</v>
       </c>
       <c r="F43" t="n">
-        <v>181.0317420729649</v>
+        <v>252.1223067016596</v>
       </c>
       <c r="G43" t="n">
-        <v>181.0317420729649</v>
+        <v>252.1223067016596</v>
       </c>
       <c r="H43" t="n">
-        <v>45.71403692789887</v>
+        <v>116.8046015565935</v>
       </c>
       <c r="I43" t="n">
-        <v>45.71403692789887</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="J43" t="n">
-        <v>113.8552786736413</v>
+        <v>113.8552786736403</v>
       </c>
       <c r="K43" t="n">
-        <v>448.97158579396</v>
+        <v>448.9715857939589</v>
       </c>
       <c r="L43" t="n">
-        <v>942.6170648759733</v>
+        <v>942.6170648759721</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.777164679443</v>
+        <v>1066.777164679442</v>
       </c>
       <c r="N43" t="n">
-        <v>1189.261862780772</v>
+        <v>1189.261862780771</v>
       </c>
       <c r="O43" t="n">
-        <v>1676.797753554303</v>
+        <v>1676.797753554302</v>
       </c>
       <c r="P43" t="n">
-        <v>2080.437978268556</v>
+        <v>2080.437978268555</v>
       </c>
       <c r="Q43" t="n">
-        <v>2285.701846394943</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="R43" t="n">
-        <v>2281.54152992585</v>
+        <v>2285.701846394942</v>
       </c>
       <c r="S43" t="n">
-        <v>2128.025506919194</v>
+        <v>2132.185823388286</v>
       </c>
       <c r="T43" t="n">
-        <v>1888.760724352647</v>
+        <v>1892.921040821738</v>
       </c>
       <c r="U43" t="n">
-        <v>1608.628291579005</v>
+        <v>1612.788608048097</v>
       </c>
       <c r="V43" t="n">
-        <v>1326.916824187034</v>
+        <v>1331.077140656125</v>
       </c>
       <c r="W43" t="n">
-        <v>1183.938712996007</v>
+        <v>1331.077140656125</v>
       </c>
       <c r="X43" t="n">
-        <v>941.3748164418121</v>
+        <v>1088.513244101931</v>
       </c>
       <c r="Y43" t="n">
-        <v>715.0320481315541</v>
+        <v>862.1704757916727</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1006.094430174309</v>
+        <v>2000.193591894685</v>
       </c>
       <c r="C44" t="n">
-        <v>1006.094430174309</v>
+        <v>1573.292861907985</v>
       </c>
       <c r="D44" t="n">
-        <v>1006.094430174309</v>
+        <v>1150.000241092986</v>
       </c>
       <c r="E44" t="n">
-        <v>873.0513452768319</v>
+        <v>724.023301240843</v>
       </c>
       <c r="F44" t="n">
-        <v>447.9271634662321</v>
+        <v>724.023301240843</v>
       </c>
       <c r="G44" t="n">
-        <v>45.71403692789887</v>
+        <v>321.8101747025099</v>
       </c>
       <c r="H44" t="n">
-        <v>45.71403692789887</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="I44" t="n">
-        <v>91.84074928306303</v>
+        <v>91.84074928306313</v>
       </c>
       <c r="J44" t="n">
         <v>239.5604597472881</v>
       </c>
       <c r="K44" t="n">
-        <v>469.1990225635043</v>
+        <v>469.1990225635042</v>
       </c>
       <c r="L44" t="n">
-        <v>760.0825020696884</v>
+        <v>760.0825020696882</v>
       </c>
       <c r="M44" t="n">
-        <v>1088.892703851147</v>
+        <v>1088.892703851146</v>
       </c>
       <c r="N44" t="n">
-        <v>1423.773142319472</v>
+        <v>1423.773142319471</v>
       </c>
       <c r="O44" t="n">
         <v>1737.82426432117</v>
       </c>
       <c r="P44" t="n">
-        <v>2000.253218480541</v>
+        <v>2000.25321848054</v>
       </c>
       <c r="Q44" t="n">
         <v>2189.498362610309</v>
@@ -7675,25 +7675,25 @@
         <v>2285.701846394943</v>
       </c>
       <c r="S44" t="n">
-        <v>2229.779315956255</v>
+        <v>2258.378426428495</v>
       </c>
       <c r="T44" t="n">
-        <v>2018.160029281523</v>
+        <v>2258.378426428495</v>
       </c>
       <c r="U44" t="n">
-        <v>1759.975194747713</v>
+        <v>2000.193591894685</v>
       </c>
       <c r="V44" t="n">
-        <v>1402.485779873962</v>
+        <v>2000.193591894685</v>
       </c>
       <c r="W44" t="n">
-        <v>1006.094430174309</v>
+        <v>2000.193591894685</v>
       </c>
       <c r="X44" t="n">
-        <v>1006.094430174309</v>
+        <v>2000.193591894685</v>
       </c>
       <c r="Y44" t="n">
-        <v>1006.094430174309</v>
+        <v>2000.193591894685</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>88.10450696589291</v>
       </c>
       <c r="H45" t="n">
-        <v>45.71403692789887</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="I45" t="n">
-        <v>91.5444323827607</v>
+        <v>91.54443238276068</v>
       </c>
       <c r="J45" t="n">
-        <v>176.4673798234149</v>
+        <v>205.7734530462852</v>
       </c>
       <c r="K45" t="n">
-        <v>469.0759558531256</v>
+        <v>363.6204555682201</v>
       </c>
       <c r="L45" t="n">
-        <v>688.8481432115784</v>
+        <v>583.3926429266728</v>
       </c>
       <c r="M45" t="n">
-        <v>948.457410952491</v>
+        <v>843.0019106675852</v>
       </c>
       <c r="N45" t="n">
-        <v>1217.279168317829</v>
+        <v>1111.823668032923</v>
       </c>
       <c r="O45" t="n">
-        <v>1459.58784099411</v>
+        <v>1354.132340709204</v>
       </c>
       <c r="P45" t="n">
-        <v>1650.920289862229</v>
+        <v>1545.464789577323</v>
       </c>
       <c r="Q45" t="n">
-        <v>1770.709095530002</v>
+        <v>1665.253595245096</v>
       </c>
       <c r="R45" t="n">
         <v>1816.490790717086</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>821.3602136171714</v>
+        <v>636.4168858186677</v>
       </c>
       <c r="C46" t="n">
-        <v>712.4041379351612</v>
+        <v>636.4168858186677</v>
       </c>
       <c r="D46" t="n">
-        <v>549.0873650619319</v>
+        <v>473.1001129454384</v>
       </c>
       <c r="E46" t="n">
-        <v>382.8791592147855</v>
+        <v>306.8919070982919</v>
       </c>
       <c r="F46" t="n">
-        <v>211.0173849893459</v>
+        <v>135.0301328728523</v>
       </c>
       <c r="G46" t="n">
-        <v>45.71403692789887</v>
+        <v>116.8046015565935</v>
       </c>
       <c r="H46" t="n">
-        <v>45.71403692789887</v>
+        <v>116.8046015565935</v>
       </c>
       <c r="I46" t="n">
-        <v>45.71403692789887</v>
+        <v>45.71403692789885</v>
       </c>
       <c r="J46" t="n">
         <v>169.2847365054937</v>
       </c>
       <c r="K46" t="n">
-        <v>448.97158579396</v>
+        <v>504.4010436258123</v>
       </c>
       <c r="L46" t="n">
-        <v>942.6170648759733</v>
+        <v>998.0465227078255</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.777164679443</v>
+        <v>1122.206622511296</v>
       </c>
       <c r="N46" t="n">
-        <v>1189.261862780772</v>
+        <v>1244.691320612624</v>
       </c>
       <c r="O46" t="n">
-        <v>1676.797753554303</v>
+        <v>1732.227211386155</v>
       </c>
       <c r="P46" t="n">
-        <v>2080.437978268556</v>
+        <v>2135.867436100409</v>
       </c>
       <c r="Q46" t="n">
         <v>2285.701846394943</v>
       </c>
       <c r="R46" t="n">
-        <v>2281.54152992585</v>
+        <v>2285.701846394943</v>
       </c>
       <c r="S46" t="n">
-        <v>2281.54152992585</v>
+        <v>2132.185823388286</v>
       </c>
       <c r="T46" t="n">
-        <v>2042.276747359303</v>
+        <v>2132.185823388286</v>
       </c>
       <c r="U46" t="n">
-        <v>1762.144314585661</v>
+        <v>1852.053390614644</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.43284719369</v>
+        <v>1570.341923222673</v>
       </c>
       <c r="W46" t="n">
-        <v>1480.43284719369</v>
+        <v>1295.489519395186</v>
       </c>
       <c r="X46" t="n">
-        <v>1237.868950639495</v>
+        <v>1052.925622840991</v>
       </c>
       <c r="Y46" t="n">
-        <v>1011.526182329237</v>
+        <v>826.5828545307334</v>
       </c>
     </row>
   </sheetData>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.37539003541778</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8850,22 +8850,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>360.0219516362448</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>354.4082905479649</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>232.1979283675687</v>
       </c>
       <c r="O13" t="n">
-        <v>366.2873004017981</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P13" t="n">
-        <v>121.9563899778107</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>5.101487993502019</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>234.1036094826145</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.4382709420381</v>
       </c>
       <c r="P15" t="n">
-        <v>7.360890261672608</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>358.0675224703017</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>128.6020535806013</v>
       </c>
       <c r="M16" t="n">
-        <v>354.408290547965</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>166.0629834591997</v>
+        <v>355.473584977936</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017982</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>200.5903457215978</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,19 +9324,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>299.6736621319156</v>
       </c>
       <c r="N19" t="n">
-        <v>39.07953346156643</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O19" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
@@ -9479,10 +9479,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>39.01535248059622</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>326.4130602513782</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>160.4493223709195</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>360.0219516362448</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>50.95854331539988</v>
       </c>
       <c r="O22" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>159.8170498506944</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>29.60209416451542</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>301.7424850182419</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>96.91317125863351</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>159.8170498506944</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>29.60209416451542</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>70.13115771913093</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>324.2014502619318</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>159.8170498506944</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>29.60209416451542</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>96.91317125863212</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.91317125863351</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>159.8170498506944</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>29.60209416451542</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>303.0691827071701</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.91317125863351</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>159.8170498506944</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>29.60209416451542</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>22.71945334986702</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
@@ -10752,7 +10752,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>96.91317125863299</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>159.8170498506944</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>159.8170498506949</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>193.7910619011813</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10992,16 +10992,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>76.37721313875785</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>29.60209416451474</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>29.60209416451542</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>22.71945334986711</v>
+        <v>22.71945334986611</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11375,10 +11375,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.60209416451544</v>
       </c>
       <c r="K45" t="n">
-        <v>136.1228015230057</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>193.7910619011815</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11475,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>96.91317125863216</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08258843891559309</v>
+        <v>0.08258843891560583</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23023,10 +23023,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>4.413415416532747</v>
+        <v>14.18783648708272</v>
       </c>
       <c r="D8" t="n">
-        <v>11.89970575175811</v>
+        <v>0.8413873365495768</v>
       </c>
       <c r="E8" t="n">
         <v>3.498863183320896</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -23260,16 +23260,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>170.2891963523731</v>
       </c>
       <c r="G11" t="n">
         <v>398.5660300744983</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.616645305211819</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>29.88487434130926</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>88.98091880886743</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>14.20831458862239</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458682</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23563,7 +23563,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>325.8086086216465</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578063</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>50.74422097002586</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>192.8232016948595</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>211.1217173020639</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>383.590338067838</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>277.176001558223</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.1448086517629</v>
@@ -23791,16 +23791,16 @@
         <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>103.3865982360822</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.46650325548023</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23983,10 +23983,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>15.13536215518292</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>144.2803323632142</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24138,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>128.9073711041193</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>268.7011695894137</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>115.5489514650266</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>172.48685952363</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>55.36330513430148</v>
       </c>
       <c r="T23" t="n">
-        <v>209.5030938079846</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6029861884722</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>4.118713304402164</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>151.9808627765896</v>
       </c>
       <c r="T25" t="n">
-        <v>236.872134740882</v>
+        <v>29.77355836378425</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>175.0487647475745</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>151.3232139514918</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>138.2197680372385</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>55.36330513430146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.5030938079846</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6029861884722</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -24511,7 +24511,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>70.37965898240769</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4.118713304402142</v>
+        <v>4.118713304402164</v>
       </c>
       <c r="S28" t="n">
         <v>151.9808627765896</v>
       </c>
       <c r="T28" t="n">
-        <v>236.872134740882</v>
+        <v>27.68601356522163</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>25.73966159542266</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>279.0056598834021</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>94.83124537600509</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>273.3351763968649</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>55.36330513430146</v>
+        <v>55.36330513430148</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.5030938079846</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6029861884722</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24748,7 +24748,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>151.7817848586244</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>65.78027725773102</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.9645280936154</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>70.37965898240768</v>
+        <v>70.37965898240769</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>4.118713304402164</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>151.9808627765896</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.872134740882</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.1909952729499</v>
       </c>
       <c r="H32" t="n">
-        <v>44.62909036556368</v>
+        <v>273.3351763968649</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.36330513430146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.5030938079846</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6029861884722</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>277.1698014814926</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>151.7817848586244</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.9645280936154</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>70.37965898240768</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.118713304402164</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>3.117804806726951</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>309.2679749938414</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.1909952729499</v>
       </c>
       <c r="H35" t="n">
-        <v>90.23968429087037</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.36330513430146</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.5030938079846</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.6029861884722</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>75.97542455637168</v>
+        <v>163.6503145808326</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.118713304402142</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>151.9808627765896</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>22.3736420354663</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>393.8227542257098</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>273.3351763968649</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.36330513430146</v>
+        <v>55.36330513430148</v>
       </c>
       <c r="T38" t="n">
-        <v>209.5030938079846</v>
+        <v>27.32215393520266</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6029861884722</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.9645280936154</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>70.37965898240768</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.118713304402164</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>151.9808627765896</v>
       </c>
       <c r="T40" t="n">
-        <v>236.872134740882</v>
+        <v>70.49807790970829</v>
       </c>
       <c r="U40" t="n">
-        <v>249.5989303896025</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.1909952729499</v>
+        <v>118.2940948197409</v>
       </c>
       <c r="H41" t="n">
-        <v>131.5308013614115</v>
+        <v>273.3351763968649</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.5030938079846</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.6029861884722</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>89.25873938756537</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>70.37965898240768</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.118713304402164</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>130.5555497100956</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>290.0045164051184</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>273.3351763968649</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>28.31311936751887</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.5030938079846</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>62.38632256468301</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>145.6070385777363</v>
       </c>
       <c r="H46" t="n">
         <v>133.9645280936154</v>
       </c>
       <c r="I46" t="n">
-        <v>70.37965898240768</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>4.118713304402164</v>
       </c>
       <c r="S46" t="n">
-        <v>151.9808627765896</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.872134740882</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>366973.1074306194</v>
+        <v>366973.1074306195</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>366973.1074306195</v>
+        <v>366973.1074306194</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>416842.5646275137</v>
+        <v>416842.5646275135</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>416842.5646275137</v>
+        <v>416842.5646275135</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>416842.5646275137</v>
+        <v>416842.5646275136</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>416842.5646275137</v>
+        <v>416842.5646275136</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>416842.5646275137</v>
+        <v>416842.5646275136</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>416842.5646275135</v>
+        <v>416842.5646275134</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>416842.5646275137</v>
+        <v>416842.5646275136</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>372953.2123506126</v>
+        <v>372953.2123506127</v>
       </c>
       <c r="C2" t="n">
-        <v>372953.2123506124</v>
+        <v>372953.2123506125</v>
       </c>
       <c r="D2" t="n">
-        <v>376615.5866150981</v>
+        <v>376615.5866150983</v>
       </c>
       <c r="E2" t="n">
         <v>199900.0674504389</v>
       </c>
       <c r="F2" t="n">
-        <v>199900.0674504389</v>
+        <v>199900.0674504388</v>
       </c>
       <c r="G2" t="n">
         <v>199900.0674504389</v>
       </c>
       <c r="H2" t="n">
-        <v>199900.0674504388</v>
+        <v>199900.0674504389</v>
       </c>
       <c r="I2" t="n">
-        <v>231757.1841509279</v>
+        <v>231757.1841509278</v>
       </c>
       <c r="J2" t="n">
         <v>231757.1841509278</v>
@@ -26343,10 +26343,10 @@
         <v>231757.1841509278</v>
       </c>
       <c r="L2" t="n">
-        <v>231757.1841509278</v>
+        <v>231757.1841509279</v>
       </c>
       <c r="M2" t="n">
-        <v>231757.1841509278</v>
+        <v>231757.1841509279</v>
       </c>
       <c r="N2" t="n">
         <v>231757.1841509278</v>
@@ -26374,7 +26374,7 @@
         <v>26525.1034207977</v>
       </c>
       <c r="E3" t="n">
-        <v>413455.7303795689</v>
+        <v>413455.7303795688</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>101595.4847950561</v>
+        <v>101595.4847950558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4610.889605347526</v>
+        <v>4610.889605347529</v>
       </c>
       <c r="M3" t="n">
         <v>108461.996097508</v>
@@ -26426,37 +26426,37 @@
         <v>304163.9298266678</v>
       </c>
       <c r="E4" t="n">
-        <v>29073.89724614986</v>
+        <v>29073.89724614987</v>
       </c>
       <c r="F4" t="n">
+        <v>29073.89724614989</v>
+      </c>
+      <c r="G4" t="n">
         <v>29073.89724614987</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29073.89724614988</v>
       </c>
       <c r="H4" t="n">
         <v>29073.89724614986</v>
       </c>
       <c r="I4" t="n">
+        <v>25103.46834045134</v>
+      </c>
+      <c r="J4" t="n">
         <v>25103.46834045135</v>
       </c>
-      <c r="J4" t="n">
-        <v>25103.46834045133</v>
-      </c>
       <c r="K4" t="n">
-        <v>25103.46834045135</v>
+        <v>25103.46834045134</v>
       </c>
       <c r="L4" t="n">
         <v>25103.46834045135</v>
       </c>
       <c r="M4" t="n">
-        <v>25103.46834045133</v>
+        <v>25103.46834045135</v>
       </c>
       <c r="N4" t="n">
         <v>25103.46834045135</v>
       </c>
       <c r="O4" t="n">
-        <v>25103.46834045133</v>
+        <v>25103.46834045134</v>
       </c>
       <c r="P4" t="n">
         <v>25103.46834045134</v>
@@ -26481,7 +26481,7 @@
         <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
         <v>36949.30081304155</v>
@@ -26490,28 +26490,28 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>46155.80262876344</v>
+        <v>46155.80262876341</v>
       </c>
       <c r="J5" t="n">
         <v>46155.80262876343</v>
       </c>
       <c r="K5" t="n">
-        <v>46155.80262876344</v>
+        <v>46155.80262876341</v>
       </c>
       <c r="L5" t="n">
-        <v>46155.80262876344</v>
+        <v>46155.80262876343</v>
       </c>
       <c r="M5" t="n">
-        <v>46155.80262876344</v>
+        <v>46155.80262876343</v>
       </c>
       <c r="N5" t="n">
-        <v>46155.80262876344</v>
+        <v>46155.80262876343</v>
       </c>
       <c r="O5" t="n">
-        <v>46155.80262876343</v>
+        <v>46155.80262876341</v>
       </c>
       <c r="P5" t="n">
-        <v>46155.80262876343</v>
+        <v>46155.80262876342</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22437.59697083157</v>
+        <v>-22459.2682087417</v>
       </c>
       <c r="C6" t="n">
-        <v>28638.21161537594</v>
+        <v>28616.54037746575</v>
       </c>
       <c r="D6" t="n">
-        <v>9504.640236977735</v>
+        <v>9497.055053931148</v>
       </c>
       <c r="E6" t="n">
-        <v>-279578.8609883214</v>
+        <v>-280266.1212450782</v>
       </c>
       <c r="F6" t="n">
-        <v>133876.8693912475</v>
+        <v>133189.6091344903</v>
       </c>
       <c r="G6" t="n">
-        <v>133876.8693912474</v>
+        <v>133189.6091344905</v>
       </c>
       <c r="H6" t="n">
-        <v>133876.8693912474</v>
+        <v>133189.6091344905</v>
       </c>
       <c r="I6" t="n">
-        <v>58902.428386657</v>
+        <v>58337.69550182519</v>
       </c>
       <c r="J6" t="n">
-        <v>160497.913181713</v>
+        <v>159933.1802968811</v>
       </c>
       <c r="K6" t="n">
-        <v>160497.913181713</v>
+        <v>159933.180296881</v>
       </c>
       <c r="L6" t="n">
-        <v>155887.0235763655</v>
+        <v>155322.2906915335</v>
       </c>
       <c r="M6" t="n">
-        <v>52035.91708420501</v>
+        <v>51471.18419937306</v>
       </c>
       <c r="N6" t="n">
-        <v>160497.913181713</v>
+        <v>159933.1802968811</v>
       </c>
       <c r="O6" t="n">
-        <v>160497.913181713</v>
+        <v>159933.180296881</v>
       </c>
       <c r="P6" t="n">
-        <v>160497.9131817131</v>
+        <v>159933.180296881</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>77.36880956975662</v>
       </c>
       <c r="E3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="G3" t="n">
         <v>430.2483758469461</v>
@@ -26758,28 +26758,28 @@
         <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>523.5382827321237</v>
+        <v>523.5382827321234</v>
       </c>
       <c r="J3" t="n">
-        <v>523.5382827321237</v>
+        <v>523.5382827321234</v>
       </c>
       <c r="K3" t="n">
-        <v>523.5382827321237</v>
+        <v>523.5382827321234</v>
       </c>
       <c r="L3" t="n">
-        <v>523.5382827321237</v>
+        <v>523.5382827321234</v>
       </c>
       <c r="M3" t="n">
-        <v>523.5382827321237</v>
+        <v>523.5382827321234</v>
       </c>
       <c r="N3" t="n">
-        <v>523.5382827321237</v>
+        <v>523.5382827321234</v>
       </c>
       <c r="O3" t="n">
-        <v>523.5382827321237</v>
+        <v>523.5382827321234</v>
       </c>
       <c r="P3" t="n">
-        <v>523.5382827321237</v>
+        <v>523.5382827321234</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="G4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="H4" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>571.425461598736</v>
+        <v>571.4254615987355</v>
       </c>
       <c r="J4" t="n">
         <v>571.4254615987358</v>
       </c>
       <c r="K4" t="n">
-        <v>571.425461598736</v>
+        <v>571.4254615987355</v>
       </c>
       <c r="L4" t="n">
-        <v>571.425461598736</v>
+        <v>571.4254615987358</v>
       </c>
       <c r="M4" t="n">
-        <v>571.425461598736</v>
+        <v>571.4254615987358</v>
       </c>
       <c r="N4" t="n">
-        <v>571.425461598736</v>
+        <v>571.4254615987358</v>
       </c>
       <c r="O4" t="n">
-        <v>571.4254615987359</v>
+        <v>571.4254615987355</v>
       </c>
       <c r="P4" t="n">
-        <v>571.4254615987359</v>
+        <v>571.4254615987356</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>24.3643268716116</v>
       </c>
       <c r="E3" t="n">
-        <v>352.8795662771895</v>
+        <v>352.8795662771894</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>93.28990688517757</v>
+        <v>93.28990688517734</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>117.9733856188325</v>
+        <v>117.973385618832</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030013</v>
       </c>
       <c r="M4" t="n">
         <v>435.2337687096034</v>
@@ -27420,10 +27420,10 @@
         <v>1.488812484839848</v>
       </c>
       <c r="P2" t="n">
-        <v>6.933710081199635</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.11407025899279</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R2" t="n">
         <v>21.64755306550058</v>
@@ -27572,7 +27572,7 @@
         <v>7.592549806828204</v>
       </c>
       <c r="N4" t="n">
-        <v>6.122270528749972</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O4" t="n">
         <v>8.989126892018565</v>
@@ -27657,10 +27657,10 @@
         <v>1.488812484839848</v>
       </c>
       <c r="P5" t="n">
-        <v>6.933710081199632</v>
+        <v>6.933710081199635</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.11407025899278</v>
+        <v>13.11407025899279</v>
       </c>
       <c r="R5" t="n">
         <v>21.64755306550058</v>
@@ -27809,7 +27809,7 @@
         <v>7.592549806828204</v>
       </c>
       <c r="N7" t="n">
-        <v>6.12227052874997</v>
+        <v>6.122270528749972</v>
       </c>
       <c r="O7" t="n">
         <v>8.989126892018565</v>
@@ -27934,28 +27934,28 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
-        <v>112.2310656803195</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
-        <v>84.5832516295677</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>85.43660711949202</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F9" t="n">
-        <v>74.49106474362476</v>
+        <v>75.27974439505897</v>
       </c>
       <c r="G9" t="n">
-        <v>92.94681813455406</v>
+        <v>74.72851086425395</v>
       </c>
       <c r="H9" t="n">
-        <v>51.2351047706663</v>
+        <v>33.01679750036618</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.888458418784962</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>187.6751851830144</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -28052,7 +28052,7 @@
         <v>2.779019446119921</v>
       </c>
       <c r="P10" t="n">
-        <v>5.506790124936622</v>
+        <v>4.917666283006032</v>
       </c>
       <c r="Q10" t="n">
         <v>12.9368725197517</v>
@@ -31068,7 +31068,7 @@
         <v>35.90214687118425</v>
       </c>
       <c r="P2" t="n">
-        <v>30.64165172903166</v>
+        <v>30.64165172903167</v>
       </c>
       <c r="Q2" t="n">
         <v>23.01060434560526</v>
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09558185404583529</v>
+        <v>0.09558185404583527</v>
       </c>
       <c r="H4" t="n">
         <v>0.8498095750620634</v>
@@ -31232,7 +31232,7 @@
         <v>8.003676887419898</v>
       </c>
       <c r="R4" t="n">
-        <v>4.297707728279101</v>
+        <v>4.297707728279102</v>
       </c>
       <c r="S4" t="n">
         <v>1.665731038235147</v>
@@ -31305,7 +31305,7 @@
         <v>35.90214687118425</v>
       </c>
       <c r="P5" t="n">
-        <v>30.64165172903167</v>
+        <v>30.64165172903166</v>
       </c>
       <c r="Q5" t="n">
         <v>23.01060434560526</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09558185404583527</v>
+        <v>0.09558185404583529</v>
       </c>
       <c r="H7" t="n">
         <v>0.8498095750620634</v>
@@ -31469,7 +31469,7 @@
         <v>8.003676887419898</v>
       </c>
       <c r="R7" t="n">
-        <v>4.297707728279102</v>
+        <v>4.297707728279101</v>
       </c>
       <c r="S7" t="n">
         <v>1.665731038235147</v>
@@ -31606,19 +31606,19 @@
         <v>15.72265591454837</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>26.87252322575217</v>
       </c>
       <c r="L9" t="n">
         <v>36.13342375236606</v>
       </c>
       <c r="M9" t="n">
-        <v>36.96727616099979</v>
+        <v>41.31508778262809</v>
       </c>
       <c r="N9" t="n">
         <v>39.56133548384177</v>
       </c>
       <c r="O9" t="n">
-        <v>39.59458313896781</v>
+        <v>30.77348212492067</v>
       </c>
       <c r="P9" t="n">
         <v>31.77814368913268</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
@@ -31776,7 +31776,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
@@ -31791,7 +31791,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K12" t="n">
         <v>149.4382495618586</v>
@@ -31849,7 +31849,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N12" t="n">
         <v>240.6914947108307</v>
@@ -31864,7 +31864,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
@@ -31873,7 +31873,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
@@ -31922,7 +31922,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L13" t="n">
         <v>115.3488842393599</v>
@@ -31937,10 +31937,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R13" t="n">
         <v>34.88538470391794</v>
@@ -31949,10 +31949,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32010,25 +32010,25 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677272</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596672</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L16" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,22 +32174,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S16" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.104676513495973</v>
+        <v>2.104676513495972</v>
       </c>
       <c r="H23" t="n">
-        <v>21.55451834384064</v>
+        <v>21.55451834384063</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14054128655357</v>
+        <v>81.14054128655354</v>
       </c>
       <c r="J23" t="n">
-        <v>178.631788237329</v>
+        <v>178.6317882373289</v>
       </c>
       <c r="K23" t="n">
-        <v>267.7227450536136</v>
+        <v>267.7227450536134</v>
       </c>
       <c r="L23" t="n">
-        <v>332.133738903516</v>
+        <v>332.1337389035159</v>
       </c>
       <c r="M23" t="n">
-        <v>369.5627798504</v>
+        <v>369.5627798503999</v>
       </c>
       <c r="N23" t="n">
-        <v>375.5426919943705</v>
+        <v>375.5426919943703</v>
       </c>
       <c r="O23" t="n">
-        <v>354.6143149132949</v>
+        <v>354.6143149132947</v>
       </c>
       <c r="P23" t="n">
-        <v>302.655113486363</v>
+        <v>302.6551134863629</v>
       </c>
       <c r="Q23" t="n">
-        <v>227.2813858467884</v>
+        <v>227.2813858467883</v>
       </c>
       <c r="R23" t="n">
         <v>132.2078860408915</v>
       </c>
       <c r="S23" t="n">
-        <v>47.96031605128953</v>
+        <v>47.96031605128951</v>
       </c>
       <c r="T23" t="n">
-        <v>9.213221437828626</v>
+        <v>9.213221437828622</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1683741210796778</v>
+        <v>0.1683741210796777</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>10.8757669676994</v>
       </c>
       <c r="I24" t="n">
-        <v>38.77146716459595</v>
+        <v>38.77146716459594</v>
       </c>
       <c r="J24" t="n">
-        <v>106.3918693238932</v>
+        <v>106.3918693238931</v>
       </c>
       <c r="K24" t="n">
-        <v>181.8406505221566</v>
+        <v>181.8406505221565</v>
       </c>
       <c r="L24" t="n">
-        <v>244.5071951571112</v>
+        <v>244.5071951571111</v>
       </c>
       <c r="M24" t="n">
-        <v>285.3283640890074</v>
+        <v>285.3283640890072</v>
       </c>
       <c r="N24" t="n">
-        <v>292.8801568653981</v>
+        <v>292.880156865398</v>
       </c>
       <c r="O24" t="n">
-        <v>267.928124748769</v>
+        <v>267.9281247487689</v>
       </c>
       <c r="P24" t="n">
-        <v>215.0359410716151</v>
+        <v>215.035941071615</v>
       </c>
       <c r="Q24" t="n">
-        <v>143.7458318927899</v>
+        <v>143.7458318927898</v>
       </c>
       <c r="R24" t="n">
-        <v>69.9170559467542</v>
+        <v>69.91705594675418</v>
       </c>
       <c r="S24" t="n">
-        <v>20.91683610726927</v>
+        <v>20.91683610726926</v>
       </c>
       <c r="T24" t="n">
-        <v>4.538978130479448</v>
+        <v>4.538978130479446</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07408560604699867</v>
+        <v>0.07408560604699863</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9440854278776</v>
+        <v>0.9440854278775995</v>
       </c>
       <c r="H25" t="n">
-        <v>8.393777713311758</v>
+        <v>8.393777713311755</v>
       </c>
       <c r="I25" t="n">
-        <v>28.3912235947191</v>
+        <v>28.39122359471909</v>
       </c>
       <c r="J25" t="n">
-        <v>66.74683975094631</v>
+        <v>66.74683975094628</v>
       </c>
       <c r="K25" t="n">
         <v>109.6855615297793</v>
       </c>
       <c r="L25" t="n">
-        <v>140.3597553410025</v>
+        <v>140.3597553410024</v>
       </c>
       <c r="M25" t="n">
         <v>147.9896821172132</v>
@@ -32882,25 +32882,25 @@
         <v>144.4708182496695</v>
       </c>
       <c r="O25" t="n">
-        <v>133.4421839330994</v>
+        <v>133.4421839330993</v>
       </c>
       <c r="P25" t="n">
         <v>114.1828412043962</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.05428069255068</v>
+        <v>79.05428069255063</v>
       </c>
       <c r="R25" t="n">
-        <v>42.44951387529644</v>
+        <v>42.44951387529642</v>
       </c>
       <c r="S25" t="n">
         <v>16.45283422946689</v>
       </c>
       <c r="T25" t="n">
-        <v>4.033819555477017</v>
+        <v>4.033819555477015</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05149556879332369</v>
+        <v>0.05149556879332367</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.104676513495973</v>
+        <v>2.104676513495972</v>
       </c>
       <c r="H26" t="n">
-        <v>21.55451834384064</v>
+        <v>21.55451834384063</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14054128655357</v>
+        <v>81.14054128655354</v>
       </c>
       <c r="J26" t="n">
-        <v>178.631788237329</v>
+        <v>178.6317882373289</v>
       </c>
       <c r="K26" t="n">
-        <v>267.7227450536136</v>
+        <v>267.7227450536134</v>
       </c>
       <c r="L26" t="n">
-        <v>332.133738903516</v>
+        <v>332.1337389035159</v>
       </c>
       <c r="M26" t="n">
-        <v>369.5627798504</v>
+        <v>369.5627798503999</v>
       </c>
       <c r="N26" t="n">
-        <v>375.5426919943705</v>
+        <v>375.5426919943703</v>
       </c>
       <c r="O26" t="n">
-        <v>354.6143149132949</v>
+        <v>354.6143149132947</v>
       </c>
       <c r="P26" t="n">
-        <v>302.655113486363</v>
+        <v>302.6551134863629</v>
       </c>
       <c r="Q26" t="n">
-        <v>227.2813858467884</v>
+        <v>227.2813858467883</v>
       </c>
       <c r="R26" t="n">
         <v>132.2078860408915</v>
       </c>
       <c r="S26" t="n">
-        <v>47.96031605128953</v>
+        <v>47.96031605128951</v>
       </c>
       <c r="T26" t="n">
-        <v>9.213221437828626</v>
+        <v>9.213221437828622</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1683741210796778</v>
+        <v>0.1683741210796777</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,43 +33022,43 @@
         <v>10.8757669676994</v>
       </c>
       <c r="I27" t="n">
-        <v>38.77146716459595</v>
+        <v>38.77146716459594</v>
       </c>
       <c r="J27" t="n">
-        <v>106.3918693238932</v>
+        <v>106.3918693238931</v>
       </c>
       <c r="K27" t="n">
-        <v>181.8406505221566</v>
+        <v>181.8406505221565</v>
       </c>
       <c r="L27" t="n">
-        <v>244.5071951571112</v>
+        <v>244.5071951571111</v>
       </c>
       <c r="M27" t="n">
-        <v>285.3283640890074</v>
+        <v>285.3283640890072</v>
       </c>
       <c r="N27" t="n">
-        <v>292.8801568653981</v>
+        <v>292.880156865398</v>
       </c>
       <c r="O27" t="n">
-        <v>267.928124748769</v>
+        <v>267.9281247487689</v>
       </c>
       <c r="P27" t="n">
-        <v>215.0359410716151</v>
+        <v>215.035941071615</v>
       </c>
       <c r="Q27" t="n">
-        <v>143.7458318927899</v>
+        <v>143.7458318927898</v>
       </c>
       <c r="R27" t="n">
-        <v>69.9170559467542</v>
+        <v>69.91705594675418</v>
       </c>
       <c r="S27" t="n">
-        <v>20.91683610726927</v>
+        <v>20.91683610726926</v>
       </c>
       <c r="T27" t="n">
-        <v>4.538978130479448</v>
+        <v>4.538978130479446</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07408560604699867</v>
+        <v>0.07408560604699863</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9440854278776</v>
+        <v>0.9440854278775995</v>
       </c>
       <c r="H28" t="n">
-        <v>8.393777713311758</v>
+        <v>8.393777713311755</v>
       </c>
       <c r="I28" t="n">
-        <v>28.3912235947191</v>
+        <v>28.39122359471909</v>
       </c>
       <c r="J28" t="n">
-        <v>66.74683975094631</v>
+        <v>66.74683975094628</v>
       </c>
       <c r="K28" t="n">
         <v>109.6855615297793</v>
       </c>
       <c r="L28" t="n">
-        <v>140.3597553410025</v>
+        <v>140.3597553410024</v>
       </c>
       <c r="M28" t="n">
         <v>147.9896821172132</v>
@@ -33119,25 +33119,25 @@
         <v>144.4708182496695</v>
       </c>
       <c r="O28" t="n">
-        <v>133.4421839330994</v>
+        <v>133.4421839330993</v>
       </c>
       <c r="P28" t="n">
         <v>114.1828412043962</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.05428069255068</v>
+        <v>79.05428069255063</v>
       </c>
       <c r="R28" t="n">
-        <v>42.44951387529644</v>
+        <v>42.44951387529642</v>
       </c>
       <c r="S28" t="n">
         <v>16.45283422946689</v>
       </c>
       <c r="T28" t="n">
-        <v>4.033819555477017</v>
+        <v>4.033819555477015</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05149556879332369</v>
+        <v>0.05149556879332367</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.104676513495973</v>
+        <v>2.104676513495972</v>
       </c>
       <c r="H29" t="n">
-        <v>21.55451834384064</v>
+        <v>21.55451834384063</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14054128655357</v>
+        <v>81.14054128655354</v>
       </c>
       <c r="J29" t="n">
-        <v>178.631788237329</v>
+        <v>178.6317882373289</v>
       </c>
       <c r="K29" t="n">
-        <v>267.7227450536136</v>
+        <v>267.7227450536134</v>
       </c>
       <c r="L29" t="n">
-        <v>332.133738903516</v>
+        <v>332.1337389035159</v>
       </c>
       <c r="M29" t="n">
-        <v>369.5627798504</v>
+        <v>369.5627798503999</v>
       </c>
       <c r="N29" t="n">
-        <v>375.5426919943705</v>
+        <v>375.5426919943703</v>
       </c>
       <c r="O29" t="n">
-        <v>354.6143149132949</v>
+        <v>354.6143149132947</v>
       </c>
       <c r="P29" t="n">
-        <v>302.655113486363</v>
+        <v>302.6551134863629</v>
       </c>
       <c r="Q29" t="n">
-        <v>227.2813858467884</v>
+        <v>227.2813858467883</v>
       </c>
       <c r="R29" t="n">
         <v>132.2078860408915</v>
       </c>
       <c r="S29" t="n">
-        <v>47.96031605128953</v>
+        <v>47.96031605128951</v>
       </c>
       <c r="T29" t="n">
-        <v>9.213221437828626</v>
+        <v>9.213221437828622</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1683741210796778</v>
+        <v>0.1683741210796777</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,43 +33259,43 @@
         <v>10.8757669676994</v>
       </c>
       <c r="I30" t="n">
-        <v>38.77146716459595</v>
+        <v>38.77146716459594</v>
       </c>
       <c r="J30" t="n">
-        <v>106.3918693238932</v>
+        <v>106.3918693238931</v>
       </c>
       <c r="K30" t="n">
-        <v>181.8406505221566</v>
+        <v>181.8406505221565</v>
       </c>
       <c r="L30" t="n">
-        <v>244.5071951571112</v>
+        <v>244.5071951571111</v>
       </c>
       <c r="M30" t="n">
-        <v>285.3283640890074</v>
+        <v>285.3283640890072</v>
       </c>
       <c r="N30" t="n">
-        <v>292.8801568653981</v>
+        <v>292.880156865398</v>
       </c>
       <c r="O30" t="n">
-        <v>267.928124748769</v>
+        <v>267.9281247487689</v>
       </c>
       <c r="P30" t="n">
-        <v>215.0359410716151</v>
+        <v>215.035941071615</v>
       </c>
       <c r="Q30" t="n">
-        <v>143.7458318927899</v>
+        <v>143.7458318927898</v>
       </c>
       <c r="R30" t="n">
-        <v>69.9170559467542</v>
+        <v>69.91705594675418</v>
       </c>
       <c r="S30" t="n">
-        <v>20.91683610726927</v>
+        <v>20.91683610726926</v>
       </c>
       <c r="T30" t="n">
-        <v>4.538978130479448</v>
+        <v>4.538978130479446</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07408560604699867</v>
+        <v>0.07408560604699863</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9440854278776</v>
+        <v>0.9440854278775995</v>
       </c>
       <c r="H31" t="n">
-        <v>8.393777713311758</v>
+        <v>8.393777713311755</v>
       </c>
       <c r="I31" t="n">
-        <v>28.3912235947191</v>
+        <v>28.39122359471909</v>
       </c>
       <c r="J31" t="n">
-        <v>66.74683975094631</v>
+        <v>66.74683975094628</v>
       </c>
       <c r="K31" t="n">
         <v>109.6855615297793</v>
       </c>
       <c r="L31" t="n">
-        <v>140.3597553410025</v>
+        <v>140.3597553410024</v>
       </c>
       <c r="M31" t="n">
         <v>147.9896821172132</v>
@@ -33356,25 +33356,25 @@
         <v>144.4708182496695</v>
       </c>
       <c r="O31" t="n">
-        <v>133.4421839330994</v>
+        <v>133.4421839330993</v>
       </c>
       <c r="P31" t="n">
         <v>114.1828412043962</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.05428069255068</v>
+        <v>79.05428069255063</v>
       </c>
       <c r="R31" t="n">
-        <v>42.44951387529644</v>
+        <v>42.44951387529642</v>
       </c>
       <c r="S31" t="n">
         <v>16.45283422946689</v>
       </c>
       <c r="T31" t="n">
-        <v>4.033819555477017</v>
+        <v>4.033819555477015</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05149556879332369</v>
+        <v>0.05149556879332367</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.104676513495973</v>
+        <v>2.104676513495972</v>
       </c>
       <c r="H32" t="n">
-        <v>21.55451834384064</v>
+        <v>21.55451834384063</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14054128655357</v>
+        <v>81.14054128655354</v>
       </c>
       <c r="J32" t="n">
-        <v>178.631788237329</v>
+        <v>178.6317882373289</v>
       </c>
       <c r="K32" t="n">
-        <v>267.7227450536136</v>
+        <v>267.7227450536134</v>
       </c>
       <c r="L32" t="n">
-        <v>332.133738903516</v>
+        <v>332.1337389035159</v>
       </c>
       <c r="M32" t="n">
-        <v>369.5627798504</v>
+        <v>369.5627798503999</v>
       </c>
       <c r="N32" t="n">
-        <v>375.5426919943705</v>
+        <v>375.5426919943703</v>
       </c>
       <c r="O32" t="n">
-        <v>354.6143149132949</v>
+        <v>354.6143149132947</v>
       </c>
       <c r="P32" t="n">
-        <v>302.655113486363</v>
+        <v>302.6551134863629</v>
       </c>
       <c r="Q32" t="n">
-        <v>227.2813858467884</v>
+        <v>227.2813858467883</v>
       </c>
       <c r="R32" t="n">
         <v>132.2078860408915</v>
       </c>
       <c r="S32" t="n">
-        <v>47.96031605128953</v>
+        <v>47.96031605128951</v>
       </c>
       <c r="T32" t="n">
-        <v>9.213221437828626</v>
+        <v>9.213221437828622</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1683741210796778</v>
+        <v>0.1683741210796777</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,43 +33496,43 @@
         <v>10.8757669676994</v>
       </c>
       <c r="I33" t="n">
-        <v>38.77146716459595</v>
+        <v>38.77146716459594</v>
       </c>
       <c r="J33" t="n">
-        <v>106.3918693238932</v>
+        <v>106.3918693238931</v>
       </c>
       <c r="K33" t="n">
-        <v>181.8406505221566</v>
+        <v>181.8406505221565</v>
       </c>
       <c r="L33" t="n">
-        <v>244.5071951571112</v>
+        <v>244.5071951571111</v>
       </c>
       <c r="M33" t="n">
-        <v>285.3283640890074</v>
+        <v>285.3283640890072</v>
       </c>
       <c r="N33" t="n">
-        <v>292.8801568653981</v>
+        <v>292.880156865398</v>
       </c>
       <c r="O33" t="n">
-        <v>267.928124748769</v>
+        <v>267.9281247487689</v>
       </c>
       <c r="P33" t="n">
-        <v>215.0359410716151</v>
+        <v>215.035941071615</v>
       </c>
       <c r="Q33" t="n">
-        <v>143.7458318927899</v>
+        <v>143.7458318927898</v>
       </c>
       <c r="R33" t="n">
-        <v>69.9170559467542</v>
+        <v>69.91705594675418</v>
       </c>
       <c r="S33" t="n">
-        <v>20.91683610726927</v>
+        <v>20.91683610726926</v>
       </c>
       <c r="T33" t="n">
-        <v>4.538978130479448</v>
+        <v>4.538978130479446</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07408560604699867</v>
+        <v>0.07408560604699863</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9440854278776</v>
+        <v>0.9440854278775995</v>
       </c>
       <c r="H34" t="n">
-        <v>8.393777713311758</v>
+        <v>8.393777713311755</v>
       </c>
       <c r="I34" t="n">
-        <v>28.3912235947191</v>
+        <v>28.39122359471909</v>
       </c>
       <c r="J34" t="n">
-        <v>66.74683975094631</v>
+        <v>66.74683975094628</v>
       </c>
       <c r="K34" t="n">
         <v>109.6855615297793</v>
       </c>
       <c r="L34" t="n">
-        <v>140.3597553410025</v>
+        <v>140.3597553410024</v>
       </c>
       <c r="M34" t="n">
         <v>147.9896821172132</v>
@@ -33593,25 +33593,25 @@
         <v>144.4708182496695</v>
       </c>
       <c r="O34" t="n">
-        <v>133.4421839330994</v>
+        <v>133.4421839330993</v>
       </c>
       <c r="P34" t="n">
         <v>114.1828412043962</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.05428069255068</v>
+        <v>79.05428069255063</v>
       </c>
       <c r="R34" t="n">
-        <v>42.44951387529644</v>
+        <v>42.44951387529642</v>
       </c>
       <c r="S34" t="n">
         <v>16.45283422946689</v>
       </c>
       <c r="T34" t="n">
-        <v>4.033819555477017</v>
+        <v>4.033819555477015</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05149556879332369</v>
+        <v>0.05149556879332367</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.104676513495973</v>
+        <v>2.104676513495972</v>
       </c>
       <c r="H35" t="n">
-        <v>21.55451834384064</v>
+        <v>21.55451834384063</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14054128655357</v>
+        <v>81.14054128655354</v>
       </c>
       <c r="J35" t="n">
-        <v>178.631788237329</v>
+        <v>178.6317882373289</v>
       </c>
       <c r="K35" t="n">
-        <v>267.7227450536136</v>
+        <v>267.7227450536134</v>
       </c>
       <c r="L35" t="n">
-        <v>332.133738903516</v>
+        <v>332.1337389035159</v>
       </c>
       <c r="M35" t="n">
-        <v>369.5627798504</v>
+        <v>369.5627798503999</v>
       </c>
       <c r="N35" t="n">
-        <v>375.5426919943705</v>
+        <v>375.5426919943703</v>
       </c>
       <c r="O35" t="n">
-        <v>354.6143149132949</v>
+        <v>354.6143149132947</v>
       </c>
       <c r="P35" t="n">
-        <v>302.655113486363</v>
+        <v>302.6551134863629</v>
       </c>
       <c r="Q35" t="n">
-        <v>227.2813858467884</v>
+        <v>227.2813858467883</v>
       </c>
       <c r="R35" t="n">
         <v>132.2078860408915</v>
       </c>
       <c r="S35" t="n">
-        <v>47.96031605128953</v>
+        <v>47.96031605128951</v>
       </c>
       <c r="T35" t="n">
-        <v>9.213221437828626</v>
+        <v>9.213221437828622</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1683741210796778</v>
+        <v>0.1683741210796777</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,43 +33733,43 @@
         <v>10.8757669676994</v>
       </c>
       <c r="I36" t="n">
-        <v>38.77146716459595</v>
+        <v>38.77146716459594</v>
       </c>
       <c r="J36" t="n">
-        <v>106.3918693238932</v>
+        <v>106.3918693238931</v>
       </c>
       <c r="K36" t="n">
-        <v>181.8406505221566</v>
+        <v>181.8406505221565</v>
       </c>
       <c r="L36" t="n">
-        <v>244.5071951571112</v>
+        <v>244.5071951571111</v>
       </c>
       <c r="M36" t="n">
-        <v>285.3283640890074</v>
+        <v>285.3283640890072</v>
       </c>
       <c r="N36" t="n">
-        <v>292.8801568653981</v>
+        <v>292.880156865398</v>
       </c>
       <c r="O36" t="n">
-        <v>267.928124748769</v>
+        <v>267.9281247487689</v>
       </c>
       <c r="P36" t="n">
-        <v>215.0359410716151</v>
+        <v>215.035941071615</v>
       </c>
       <c r="Q36" t="n">
-        <v>143.7458318927899</v>
+        <v>143.7458318927898</v>
       </c>
       <c r="R36" t="n">
-        <v>69.9170559467542</v>
+        <v>69.91705594675418</v>
       </c>
       <c r="S36" t="n">
-        <v>20.91683610726927</v>
+        <v>20.91683610726926</v>
       </c>
       <c r="T36" t="n">
-        <v>4.538978130479448</v>
+        <v>4.538978130479446</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07408560604699867</v>
+        <v>0.07408560604699863</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9440854278776</v>
+        <v>0.9440854278775995</v>
       </c>
       <c r="H37" t="n">
-        <v>8.393777713311758</v>
+        <v>8.393777713311755</v>
       </c>
       <c r="I37" t="n">
-        <v>28.3912235947191</v>
+        <v>28.39122359471909</v>
       </c>
       <c r="J37" t="n">
-        <v>66.74683975094631</v>
+        <v>66.74683975094628</v>
       </c>
       <c r="K37" t="n">
         <v>109.6855615297793</v>
       </c>
       <c r="L37" t="n">
-        <v>140.3597553410025</v>
+        <v>140.3597553410024</v>
       </c>
       <c r="M37" t="n">
         <v>147.9896821172132</v>
@@ -33830,25 +33830,25 @@
         <v>144.4708182496695</v>
       </c>
       <c r="O37" t="n">
-        <v>133.4421839330994</v>
+        <v>133.4421839330993</v>
       </c>
       <c r="P37" t="n">
         <v>114.1828412043962</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.05428069255068</v>
+        <v>79.05428069255063</v>
       </c>
       <c r="R37" t="n">
-        <v>42.44951387529644</v>
+        <v>42.44951387529642</v>
       </c>
       <c r="S37" t="n">
         <v>16.45283422946689</v>
       </c>
       <c r="T37" t="n">
-        <v>4.033819555477017</v>
+        <v>4.033819555477015</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05149556879332369</v>
+        <v>0.05149556879332367</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.104676513495973</v>
+        <v>2.104676513495972</v>
       </c>
       <c r="H38" t="n">
-        <v>21.55451834384064</v>
+        <v>21.55451834384063</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14054128655357</v>
+        <v>81.14054128655354</v>
       </c>
       <c r="J38" t="n">
-        <v>178.631788237329</v>
+        <v>178.6317882373289</v>
       </c>
       <c r="K38" t="n">
-        <v>267.7227450536136</v>
+        <v>267.7227450536134</v>
       </c>
       <c r="L38" t="n">
-        <v>332.133738903516</v>
+        <v>332.1337389035159</v>
       </c>
       <c r="M38" t="n">
-        <v>369.5627798504</v>
+        <v>369.5627798503999</v>
       </c>
       <c r="N38" t="n">
-        <v>375.5426919943705</v>
+        <v>375.5426919943703</v>
       </c>
       <c r="O38" t="n">
-        <v>354.6143149132949</v>
+        <v>354.6143149132947</v>
       </c>
       <c r="P38" t="n">
-        <v>302.655113486363</v>
+        <v>302.6551134863629</v>
       </c>
       <c r="Q38" t="n">
-        <v>227.2813858467884</v>
+        <v>227.2813858467883</v>
       </c>
       <c r="R38" t="n">
         <v>132.2078860408915</v>
       </c>
       <c r="S38" t="n">
-        <v>47.96031605128953</v>
+        <v>47.96031605128951</v>
       </c>
       <c r="T38" t="n">
-        <v>9.213221437828626</v>
+        <v>9.213221437828622</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1683741210796778</v>
+        <v>0.1683741210796777</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,43 +33970,43 @@
         <v>10.8757669676994</v>
       </c>
       <c r="I39" t="n">
-        <v>38.77146716459595</v>
+        <v>38.77146716459594</v>
       </c>
       <c r="J39" t="n">
-        <v>106.3918693238932</v>
+        <v>106.3918693238931</v>
       </c>
       <c r="K39" t="n">
-        <v>181.8406505221566</v>
+        <v>181.8406505221565</v>
       </c>
       <c r="L39" t="n">
-        <v>244.5071951571112</v>
+        <v>244.5071951571111</v>
       </c>
       <c r="M39" t="n">
-        <v>285.3283640890074</v>
+        <v>285.3283640890072</v>
       </c>
       <c r="N39" t="n">
-        <v>292.8801568653981</v>
+        <v>292.880156865398</v>
       </c>
       <c r="O39" t="n">
-        <v>267.928124748769</v>
+        <v>267.9281247487689</v>
       </c>
       <c r="P39" t="n">
-        <v>215.0359410716151</v>
+        <v>215.035941071615</v>
       </c>
       <c r="Q39" t="n">
-        <v>143.7458318927899</v>
+        <v>143.7458318927898</v>
       </c>
       <c r="R39" t="n">
-        <v>69.9170559467542</v>
+        <v>69.91705594675418</v>
       </c>
       <c r="S39" t="n">
-        <v>20.91683610726927</v>
+        <v>20.91683610726926</v>
       </c>
       <c r="T39" t="n">
-        <v>4.538978130479448</v>
+        <v>4.538978130479446</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07408560604699867</v>
+        <v>0.07408560604699863</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9440854278776</v>
+        <v>0.9440854278775995</v>
       </c>
       <c r="H40" t="n">
-        <v>8.393777713311758</v>
+        <v>8.393777713311755</v>
       </c>
       <c r="I40" t="n">
-        <v>28.3912235947191</v>
+        <v>28.39122359471909</v>
       </c>
       <c r="J40" t="n">
-        <v>66.74683975094631</v>
+        <v>66.74683975094628</v>
       </c>
       <c r="K40" t="n">
         <v>109.6855615297793</v>
       </c>
       <c r="L40" t="n">
-        <v>140.3597553410025</v>
+        <v>140.3597553410024</v>
       </c>
       <c r="M40" t="n">
         <v>147.9896821172132</v>
@@ -34067,25 +34067,25 @@
         <v>144.4708182496695</v>
       </c>
       <c r="O40" t="n">
-        <v>133.4421839330994</v>
+        <v>133.4421839330993</v>
       </c>
       <c r="P40" t="n">
         <v>114.1828412043962</v>
       </c>
       <c r="Q40" t="n">
-        <v>79.05428069255068</v>
+        <v>79.05428069255063</v>
       </c>
       <c r="R40" t="n">
-        <v>42.44951387529644</v>
+        <v>42.44951387529642</v>
       </c>
       <c r="S40" t="n">
         <v>16.45283422946689</v>
       </c>
       <c r="T40" t="n">
-        <v>4.033819555477017</v>
+        <v>4.033819555477015</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05149556879332369</v>
+        <v>0.05149556879332367</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.104676513495973</v>
+        <v>2.104676513495972</v>
       </c>
       <c r="H41" t="n">
-        <v>21.55451834384064</v>
+        <v>21.55451834384063</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14054128655357</v>
+        <v>81.14054128655354</v>
       </c>
       <c r="J41" t="n">
-        <v>178.631788237329</v>
+        <v>178.6317882373289</v>
       </c>
       <c r="K41" t="n">
-        <v>267.7227450536136</v>
+        <v>267.7227450536134</v>
       </c>
       <c r="L41" t="n">
-        <v>332.133738903516</v>
+        <v>332.1337389035159</v>
       </c>
       <c r="M41" t="n">
-        <v>369.5627798504</v>
+        <v>369.5627798503999</v>
       </c>
       <c r="N41" t="n">
-        <v>375.5426919943705</v>
+        <v>375.5426919943703</v>
       </c>
       <c r="O41" t="n">
-        <v>354.6143149132949</v>
+        <v>354.6143149132947</v>
       </c>
       <c r="P41" t="n">
-        <v>302.655113486363</v>
+        <v>302.6551134863629</v>
       </c>
       <c r="Q41" t="n">
-        <v>227.2813858467884</v>
+        <v>227.2813858467883</v>
       </c>
       <c r="R41" t="n">
         <v>132.2078860408915</v>
       </c>
       <c r="S41" t="n">
-        <v>47.96031605128953</v>
+        <v>47.96031605128951</v>
       </c>
       <c r="T41" t="n">
-        <v>9.213221437828626</v>
+        <v>9.213221437828622</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1683741210796778</v>
+        <v>0.1683741210796777</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,43 +34207,43 @@
         <v>10.8757669676994</v>
       </c>
       <c r="I42" t="n">
-        <v>38.77146716459595</v>
+        <v>38.77146716459594</v>
       </c>
       <c r="J42" t="n">
-        <v>106.3918693238932</v>
+        <v>106.3918693238931</v>
       </c>
       <c r="K42" t="n">
-        <v>181.8406505221566</v>
+        <v>181.8406505221565</v>
       </c>
       <c r="L42" t="n">
-        <v>244.5071951571112</v>
+        <v>244.5071951571111</v>
       </c>
       <c r="M42" t="n">
-        <v>285.3283640890074</v>
+        <v>285.3283640890072</v>
       </c>
       <c r="N42" t="n">
-        <v>292.8801568653981</v>
+        <v>292.880156865398</v>
       </c>
       <c r="O42" t="n">
-        <v>267.928124748769</v>
+        <v>267.9281247487689</v>
       </c>
       <c r="P42" t="n">
-        <v>215.0359410716151</v>
+        <v>215.035941071615</v>
       </c>
       <c r="Q42" t="n">
-        <v>143.7458318927899</v>
+        <v>143.7458318927898</v>
       </c>
       <c r="R42" t="n">
-        <v>69.9170559467542</v>
+        <v>69.91705594675418</v>
       </c>
       <c r="S42" t="n">
-        <v>20.91683610726927</v>
+        <v>20.91683610726926</v>
       </c>
       <c r="T42" t="n">
-        <v>4.538978130479448</v>
+        <v>4.538978130479446</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07408560604699867</v>
+        <v>0.07408560604699863</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9440854278776</v>
+        <v>0.9440854278775995</v>
       </c>
       <c r="H43" t="n">
-        <v>8.393777713311758</v>
+        <v>8.393777713311755</v>
       </c>
       <c r="I43" t="n">
-        <v>28.3912235947191</v>
+        <v>28.39122359471909</v>
       </c>
       <c r="J43" t="n">
-        <v>66.74683975094631</v>
+        <v>66.74683975094628</v>
       </c>
       <c r="K43" t="n">
         <v>109.6855615297793</v>
       </c>
       <c r="L43" t="n">
-        <v>140.3597553410025</v>
+        <v>140.3597553410024</v>
       </c>
       <c r="M43" t="n">
         <v>147.9896821172132</v>
@@ -34304,25 +34304,25 @@
         <v>144.4708182496695</v>
       </c>
       <c r="O43" t="n">
-        <v>133.4421839330994</v>
+        <v>133.4421839330993</v>
       </c>
       <c r="P43" t="n">
         <v>114.1828412043962</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.05428069255068</v>
+        <v>79.05428069255063</v>
       </c>
       <c r="R43" t="n">
-        <v>42.44951387529644</v>
+        <v>42.44951387529642</v>
       </c>
       <c r="S43" t="n">
         <v>16.45283422946689</v>
       </c>
       <c r="T43" t="n">
-        <v>4.033819555477017</v>
+        <v>4.033819555477015</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05149556879332369</v>
+        <v>0.05149556879332367</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.104676513495973</v>
+        <v>2.104676513495972</v>
       </c>
       <c r="H44" t="n">
-        <v>21.55451834384064</v>
+        <v>21.55451834384063</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14054128655357</v>
+        <v>81.14054128655354</v>
       </c>
       <c r="J44" t="n">
-        <v>178.631788237329</v>
+        <v>178.6317882373289</v>
       </c>
       <c r="K44" t="n">
-        <v>267.7227450536136</v>
+        <v>267.7227450536134</v>
       </c>
       <c r="L44" t="n">
-        <v>332.133738903516</v>
+        <v>332.1337389035159</v>
       </c>
       <c r="M44" t="n">
-        <v>369.5627798504</v>
+        <v>369.5627798503999</v>
       </c>
       <c r="N44" t="n">
-        <v>375.5426919943705</v>
+        <v>375.5426919943703</v>
       </c>
       <c r="O44" t="n">
-        <v>354.6143149132949</v>
+        <v>354.6143149132947</v>
       </c>
       <c r="P44" t="n">
-        <v>302.655113486363</v>
+        <v>302.6551134863629</v>
       </c>
       <c r="Q44" t="n">
-        <v>227.2813858467884</v>
+        <v>227.2813858467883</v>
       </c>
       <c r="R44" t="n">
         <v>132.2078860408915</v>
       </c>
       <c r="S44" t="n">
-        <v>47.96031605128953</v>
+        <v>47.96031605128951</v>
       </c>
       <c r="T44" t="n">
-        <v>9.213221437828626</v>
+        <v>9.213221437828622</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1683741210796778</v>
+        <v>0.1683741210796777</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,43 +34444,43 @@
         <v>10.8757669676994</v>
       </c>
       <c r="I45" t="n">
-        <v>38.77146716459595</v>
+        <v>38.77146716459594</v>
       </c>
       <c r="J45" t="n">
-        <v>106.3918693238932</v>
+        <v>106.3918693238931</v>
       </c>
       <c r="K45" t="n">
-        <v>181.8406505221566</v>
+        <v>181.8406505221565</v>
       </c>
       <c r="L45" t="n">
-        <v>244.5071951571112</v>
+        <v>244.5071951571111</v>
       </c>
       <c r="M45" t="n">
-        <v>285.3283640890074</v>
+        <v>285.3283640890072</v>
       </c>
       <c r="N45" t="n">
-        <v>292.8801568653981</v>
+        <v>292.880156865398</v>
       </c>
       <c r="O45" t="n">
-        <v>267.928124748769</v>
+        <v>267.9281247487689</v>
       </c>
       <c r="P45" t="n">
-        <v>215.0359410716151</v>
+        <v>215.035941071615</v>
       </c>
       <c r="Q45" t="n">
-        <v>143.7458318927899</v>
+        <v>143.7458318927898</v>
       </c>
       <c r="R45" t="n">
-        <v>69.9170559467542</v>
+        <v>69.91705594675418</v>
       </c>
       <c r="S45" t="n">
-        <v>20.91683610726927</v>
+        <v>20.91683610726926</v>
       </c>
       <c r="T45" t="n">
-        <v>4.538978130479448</v>
+        <v>4.538978130479446</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07408560604699867</v>
+        <v>0.07408560604699863</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9440854278776</v>
+        <v>0.9440854278775995</v>
       </c>
       <c r="H46" t="n">
-        <v>8.393777713311758</v>
+        <v>8.393777713311755</v>
       </c>
       <c r="I46" t="n">
-        <v>28.3912235947191</v>
+        <v>28.39122359471909</v>
       </c>
       <c r="J46" t="n">
-        <v>66.74683975094631</v>
+        <v>66.74683975094628</v>
       </c>
       <c r="K46" t="n">
         <v>109.6855615297793</v>
       </c>
       <c r="L46" t="n">
-        <v>140.3597553410025</v>
+        <v>140.3597553410024</v>
       </c>
       <c r="M46" t="n">
         <v>147.9896821172132</v>
@@ -34541,25 +34541,25 @@
         <v>144.4708182496695</v>
       </c>
       <c r="O46" t="n">
-        <v>133.4421839330994</v>
+        <v>133.4421839330993</v>
       </c>
       <c r="P46" t="n">
         <v>114.1828412043962</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.05428069255068</v>
+        <v>79.05428069255063</v>
       </c>
       <c r="R46" t="n">
-        <v>42.44951387529644</v>
+        <v>42.44951387529642</v>
       </c>
       <c r="S46" t="n">
         <v>16.45283422946689</v>
       </c>
       <c r="T46" t="n">
-        <v>4.033819555477017</v>
+        <v>4.033819555477015</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05149556879332369</v>
+        <v>0.05149556879332367</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4.473289392418831</v>
       </c>
       <c r="L9" t="n">
         <v>13.6183370381365</v>
       </c>
       <c r="M9" t="n">
-        <v>13.87049564867181</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="N9" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="O9" t="n">
-        <v>16.42269341674558</v>
+        <v>7.601592402698445</v>
       </c>
       <c r="P9" t="n">
         <v>10.00730248430402</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N11" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
         <v>361.8756844398183</v>
@@ -35503,13 +35503,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.7599435450197</v>
+        <v>165.7599435450199</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35570,25 +35570,25 @@
         <v>34.21638531055221</v>
       </c>
       <c r="K13" t="n">
-        <v>69.17590691325471</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>453.4520759799035</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M13" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="N13" t="n">
-        <v>97.9784910019676</v>
+        <v>330.1764193695363</v>
       </c>
       <c r="O13" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="P13" t="n">
-        <v>193.4120547668368</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.34794198810391</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35670,7 +35670,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.38459507201446</v>
+        <v>15.69034674432572</v>
       </c>
       <c r="J15" t="n">
-        <v>66.82266174326165</v>
+        <v>66.82266174326163</v>
       </c>
       <c r="K15" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242577</v>
+        <v>216.4900723177596</v>
       </c>
       <c r="N15" t="n">
-        <v>219.3484664972891</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378654</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P15" t="n">
-        <v>162.3084810155642</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>453.4520759799036</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R15" t="n">
-        <v>140.3062408746237</v>
+        <v>33.78553351613294</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.21638531055223</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325472</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>93.43012434365875</v>
+        <v>222.03217792426</v>
       </c>
       <c r="M16" t="n">
-        <v>453.4520759799036</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N16" t="n">
-        <v>264.0414744611674</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799036</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P16" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.34794198810393</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
         <v>361.8756844398183</v>
@@ -35974,7 +35974,7 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
-        <v>419.9388122188869</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
         <v>197.0138050378654</v>
@@ -35983,10 +35983,10 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R18" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,19 +36044,19 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>318.9563201597416</v>
+        <v>69.17590691325471</v>
       </c>
       <c r="L19" t="n">
         <v>93.43012434365872</v>
       </c>
       <c r="M19" t="n">
-        <v>99.0437854319386</v>
+        <v>398.7174475638542</v>
       </c>
       <c r="N19" t="n">
-        <v>137.058024463534</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P19" t="n">
         <v>387.3710229438823</v>
@@ -36199,10 +36199,10 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J21" t="n">
-        <v>105.8380142238579</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>453.4520759799035</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
         <v>178.4230816471201</v>
@@ -36220,7 +36220,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>229.6252292841742</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
+        <v>93.43012434365872</v>
+      </c>
+      <c r="M22" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="M22" t="n">
-        <v>99.0437854319386</v>
-      </c>
       <c r="N22" t="n">
-        <v>97.9784910019676</v>
+        <v>148.9370343173675</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P22" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.34794198810391</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>46.59263874259007</v>
+        <v>46.59263874259004</v>
       </c>
       <c r="J23" t="n">
-        <v>149.2118287517425</v>
+        <v>149.2118287517424</v>
       </c>
       <c r="K23" t="n">
-        <v>231.9581442588043</v>
+        <v>231.9581442588041</v>
       </c>
       <c r="L23" t="n">
-        <v>293.8216964708931</v>
+        <v>293.821696470893</v>
       </c>
       <c r="M23" t="n">
-        <v>332.1315169509682</v>
+        <v>332.131516950968</v>
       </c>
       <c r="N23" t="n">
-        <v>338.2630691599245</v>
+        <v>338.2630691599243</v>
       </c>
       <c r="O23" t="n">
-        <v>317.2233555572708</v>
+        <v>317.2233555572706</v>
       </c>
       <c r="P23" t="n">
-        <v>265.0797516761317</v>
+        <v>265.0797516761316</v>
       </c>
       <c r="Q23" t="n">
         <v>191.1567112421903</v>
       </c>
       <c r="R23" t="n">
-        <v>97.17523614609507</v>
+        <v>97.17523614609502</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>22.59908041459595</v>
+        <v>46.29332874228467</v>
       </c>
       <c r="J24" t="n">
-        <v>245.5978048412543</v>
+        <v>85.78075499055981</v>
       </c>
       <c r="K24" t="n">
         <v>159.4414166888232</v>
       </c>
       <c r="L24" t="n">
-        <v>221.9921084428816</v>
+        <v>221.9921084428815</v>
       </c>
       <c r="M24" t="n">
-        <v>262.2315835766794</v>
+        <v>262.2315835766792</v>
       </c>
       <c r="N24" t="n">
-        <v>271.5371286518564</v>
+        <v>271.5371286518563</v>
       </c>
       <c r="O24" t="n">
-        <v>244.7562350265468</v>
+        <v>244.7562350265466</v>
       </c>
       <c r="P24" t="n">
-        <v>193.2650998667865</v>
+        <v>193.2650998667864</v>
       </c>
       <c r="Q24" t="n">
-        <v>120.9987936038114</v>
+        <v>150.6008877683267</v>
       </c>
       <c r="R24" t="n">
-        <v>46.24413655261006</v>
+        <v>152.7648439111007</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>124.818888462217</v>
+        <v>46.11008376704442</v>
       </c>
       <c r="K25" t="n">
-        <v>338.5013203235542</v>
+        <v>88.72090707706727</v>
       </c>
       <c r="L25" t="n">
-        <v>498.6317970525386</v>
+        <v>420.1834804635431</v>
       </c>
       <c r="M25" t="n">
-        <v>125.4142422257274</v>
+        <v>543.1268487538301</v>
       </c>
       <c r="N25" t="n">
-        <v>123.7219172740692</v>
+        <v>525.7753746901096</v>
       </c>
       <c r="O25" t="n">
-        <v>492.4604957308399</v>
+        <v>492.4604957308397</v>
       </c>
       <c r="P25" t="n">
-        <v>407.7173987012659</v>
+        <v>91.80204054640969</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.3478891863992</v>
+        <v>54.43471792776569</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>46.59263874259007</v>
+        <v>46.59263874259004</v>
       </c>
       <c r="J26" t="n">
-        <v>149.2118287517425</v>
+        <v>149.2118287517424</v>
       </c>
       <c r="K26" t="n">
-        <v>231.9581442588043</v>
+        <v>231.9581442588041</v>
       </c>
       <c r="L26" t="n">
-        <v>293.8216964708931</v>
+        <v>293.821696470893</v>
       </c>
       <c r="M26" t="n">
-        <v>332.1315169509682</v>
+        <v>332.131516950968</v>
       </c>
       <c r="N26" t="n">
-        <v>338.2630691599245</v>
+        <v>338.2630691599243</v>
       </c>
       <c r="O26" t="n">
-        <v>317.2233555572708</v>
+        <v>317.2233555572706</v>
       </c>
       <c r="P26" t="n">
-        <v>265.0797516761317</v>
+        <v>265.0797516761316</v>
       </c>
       <c r="Q26" t="n">
         <v>191.1567112421903</v>
       </c>
       <c r="R26" t="n">
-        <v>97.17523614609507</v>
+        <v>97.17523614609502</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>22.59908041459595</v>
+        <v>46.29332874228467</v>
       </c>
       <c r="J27" t="n">
-        <v>245.5978048412543</v>
+        <v>85.78075499055981</v>
       </c>
       <c r="K27" t="n">
         <v>159.4414166888232</v>
       </c>
       <c r="L27" t="n">
-        <v>221.9921084428816</v>
+        <v>221.9921084428815</v>
       </c>
       <c r="M27" t="n">
-        <v>262.2315835766794</v>
+        <v>262.2315835766792</v>
       </c>
       <c r="N27" t="n">
-        <v>271.5371286518564</v>
+        <v>271.5371286518563</v>
       </c>
       <c r="O27" t="n">
-        <v>244.7562350265468</v>
+        <v>244.7562350265466</v>
       </c>
       <c r="P27" t="n">
-        <v>193.2650998667865</v>
+        <v>193.2650998667864</v>
       </c>
       <c r="Q27" t="n">
-        <v>120.9987936038114</v>
+        <v>150.6008877683267</v>
       </c>
       <c r="R27" t="n">
-        <v>46.24413655261006</v>
+        <v>152.7648439111007</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>124.818888462217</v>
       </c>
       <c r="K28" t="n">
-        <v>158.8520647961982</v>
+        <v>338.5013203235542</v>
       </c>
       <c r="L28" t="n">
-        <v>118.4409954453013</v>
+        <v>442.642445707233</v>
       </c>
       <c r="M28" t="n">
-        <v>543.1268487538302</v>
+        <v>125.4142422257273</v>
       </c>
       <c r="N28" t="n">
-        <v>525.7753746901097</v>
+        <v>123.7219172740691</v>
       </c>
       <c r="O28" t="n">
-        <v>492.4604957308399</v>
+        <v>492.4604957308397</v>
       </c>
       <c r="P28" t="n">
-        <v>91.80204054640974</v>
+        <v>407.7173987012659</v>
       </c>
       <c r="Q28" t="n">
         <v>207.3372405317041</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>46.59263874259007</v>
+        <v>46.59263874259004</v>
       </c>
       <c r="J29" t="n">
-        <v>149.2118287517425</v>
+        <v>149.2118287517424</v>
       </c>
       <c r="K29" t="n">
-        <v>231.9581442588043</v>
+        <v>231.9581442588041</v>
       </c>
       <c r="L29" t="n">
-        <v>293.8216964708931</v>
+        <v>293.821696470893</v>
       </c>
       <c r="M29" t="n">
-        <v>332.1315169509682</v>
+        <v>332.131516950968</v>
       </c>
       <c r="N29" t="n">
-        <v>338.2630691599245</v>
+        <v>338.2630691599243</v>
       </c>
       <c r="O29" t="n">
-        <v>317.2233555572708</v>
+        <v>317.2233555572706</v>
       </c>
       <c r="P29" t="n">
-        <v>265.0797516761317</v>
+        <v>265.0797516761316</v>
       </c>
       <c r="Q29" t="n">
         <v>191.1567112421903</v>
       </c>
       <c r="R29" t="n">
-        <v>97.17523614609507</v>
+        <v>97.17523614609502</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>22.59908041459595</v>
+        <v>46.29332874228467</v>
       </c>
       <c r="J30" t="n">
-        <v>245.5978048412543</v>
+        <v>85.78075499055981</v>
       </c>
       <c r="K30" t="n">
         <v>159.4414166888232</v>
       </c>
       <c r="L30" t="n">
-        <v>221.9921084428816</v>
+        <v>221.9921084428815</v>
       </c>
       <c r="M30" t="n">
-        <v>262.2315835766794</v>
+        <v>262.2315835766792</v>
       </c>
       <c r="N30" t="n">
-        <v>271.5371286518564</v>
+        <v>271.5371286518563</v>
       </c>
       <c r="O30" t="n">
-        <v>244.7562350265468</v>
+        <v>244.7562350265466</v>
       </c>
       <c r="P30" t="n">
-        <v>193.2650998667865</v>
+        <v>193.2650998667864</v>
       </c>
       <c r="Q30" t="n">
-        <v>120.9987936038114</v>
+        <v>150.6008877683267</v>
       </c>
       <c r="R30" t="n">
-        <v>46.24413655261006</v>
+        <v>152.7648439111007</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36998,19 +36998,19 @@
         <v>498.6317970525386</v>
       </c>
       <c r="M31" t="n">
-        <v>125.4142422257274</v>
+        <v>125.4142422257273</v>
       </c>
       <c r="N31" t="n">
-        <v>123.7219172740692</v>
+        <v>220.6350885327012</v>
       </c>
       <c r="O31" t="n">
-        <v>492.4604957308399</v>
+        <v>492.4604957308397</v>
       </c>
       <c r="P31" t="n">
         <v>407.7173987012659</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.3478891863992</v>
+        <v>54.43471792776569</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>46.59263874259007</v>
+        <v>46.59263874259004</v>
       </c>
       <c r="J32" t="n">
-        <v>149.2118287517425</v>
+        <v>149.2118287517424</v>
       </c>
       <c r="K32" t="n">
-        <v>231.9581442588043</v>
+        <v>231.9581442588041</v>
       </c>
       <c r="L32" t="n">
-        <v>293.8216964708931</v>
+        <v>293.821696470893</v>
       </c>
       <c r="M32" t="n">
-        <v>332.1315169509682</v>
+        <v>332.131516950968</v>
       </c>
       <c r="N32" t="n">
-        <v>338.2630691599245</v>
+        <v>338.2630691599243</v>
       </c>
       <c r="O32" t="n">
-        <v>317.2233555572708</v>
+        <v>317.2233555572706</v>
       </c>
       <c r="P32" t="n">
-        <v>265.0797516761317</v>
+        <v>265.0797516761316</v>
       </c>
       <c r="Q32" t="n">
         <v>191.1567112421903</v>
       </c>
       <c r="R32" t="n">
-        <v>97.17523614609507</v>
+        <v>97.17523614609502</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>22.59908041459595</v>
+        <v>46.29332874228467</v>
       </c>
       <c r="J33" t="n">
-        <v>245.5978048412543</v>
+        <v>85.78075499055981</v>
       </c>
       <c r="K33" t="n">
         <v>159.4414166888232</v>
       </c>
       <c r="L33" t="n">
-        <v>221.9921084428816</v>
+        <v>221.9921084428815</v>
       </c>
       <c r="M33" t="n">
-        <v>262.2315835766794</v>
+        <v>262.2315835766792</v>
       </c>
       <c r="N33" t="n">
-        <v>271.5371286518564</v>
+        <v>271.5371286518563</v>
       </c>
       <c r="O33" t="n">
-        <v>244.7562350265468</v>
+        <v>244.7562350265466</v>
       </c>
       <c r="P33" t="n">
-        <v>193.2650998667865</v>
+        <v>193.2650998667864</v>
       </c>
       <c r="Q33" t="n">
-        <v>120.9987936038114</v>
+        <v>150.6008877683267</v>
       </c>
       <c r="R33" t="n">
-        <v>46.24413655261006</v>
+        <v>152.7648439111007</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>124.818888462217</v>
+        <v>46.11008376704442</v>
       </c>
       <c r="K34" t="n">
-        <v>338.5013203235542</v>
+        <v>88.72090707706727</v>
       </c>
       <c r="L34" t="n">
         <v>498.6317970525386</v>
       </c>
       <c r="M34" t="n">
-        <v>125.4142422257274</v>
+        <v>543.1268487538301</v>
       </c>
       <c r="N34" t="n">
-        <v>123.7219172740692</v>
+        <v>525.7753746901096</v>
       </c>
       <c r="O34" t="n">
-        <v>492.4604957308399</v>
+        <v>414.012179141845</v>
       </c>
       <c r="P34" t="n">
-        <v>407.7173987012659</v>
+        <v>91.80204054640969</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.3478891863992</v>
+        <v>54.43471792776569</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>46.59263874259007</v>
+        <v>46.59263874259004</v>
       </c>
       <c r="J35" t="n">
-        <v>149.2118287517425</v>
+        <v>149.2118287517424</v>
       </c>
       <c r="K35" t="n">
-        <v>231.9581442588043</v>
+        <v>231.9581442588041</v>
       </c>
       <c r="L35" t="n">
-        <v>293.8216964708931</v>
+        <v>293.821696470893</v>
       </c>
       <c r="M35" t="n">
-        <v>332.1315169509682</v>
+        <v>332.131516950968</v>
       </c>
       <c r="N35" t="n">
-        <v>338.2630691599245</v>
+        <v>338.2630691599243</v>
       </c>
       <c r="O35" t="n">
-        <v>317.2233555572708</v>
+        <v>317.2233555572706</v>
       </c>
       <c r="P35" t="n">
-        <v>265.0797516761317</v>
+        <v>265.0797516761316</v>
       </c>
       <c r="Q35" t="n">
         <v>191.1567112421903</v>
       </c>
       <c r="R35" t="n">
-        <v>97.17523614609507</v>
+        <v>97.17523614609502</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>22.59908041459595</v>
+        <v>46.29332874228467</v>
       </c>
       <c r="J36" t="n">
-        <v>245.5978048412543</v>
+        <v>85.78075499055981</v>
       </c>
       <c r="K36" t="n">
         <v>159.4414166888232</v>
       </c>
       <c r="L36" t="n">
-        <v>221.9921084428816</v>
+        <v>221.9921084428815</v>
       </c>
       <c r="M36" t="n">
-        <v>262.2315835766794</v>
+        <v>262.2315835766792</v>
       </c>
       <c r="N36" t="n">
-        <v>271.5371286518564</v>
+        <v>271.5371286518563</v>
       </c>
       <c r="O36" t="n">
-        <v>244.7562350265468</v>
+        <v>244.7562350265466</v>
       </c>
       <c r="P36" t="n">
-        <v>193.2650998667865</v>
+        <v>193.2650998667864</v>
       </c>
       <c r="Q36" t="n">
-        <v>120.9987936038114</v>
+        <v>150.6008877683267</v>
       </c>
       <c r="R36" t="n">
-        <v>46.24413655261006</v>
+        <v>152.7648439111007</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>124.818888462217</v>
+        <v>68.82953711691144</v>
       </c>
       <c r="K37" t="n">
         <v>338.5013203235542</v>
@@ -37472,19 +37472,19 @@
         <v>498.6317970525386</v>
       </c>
       <c r="M37" t="n">
-        <v>222.3274134843604</v>
+        <v>125.4142422257273</v>
       </c>
       <c r="N37" t="n">
-        <v>123.7219172740692</v>
+        <v>123.7219172740691</v>
       </c>
       <c r="O37" t="n">
-        <v>492.4604957308399</v>
+        <v>492.4604957308397</v>
       </c>
       <c r="P37" t="n">
         <v>407.7173987012659</v>
       </c>
       <c r="Q37" t="n">
-        <v>54.43471792776573</v>
+        <v>207.3372405317041</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>46.59263874259007</v>
+        <v>46.59263874259004</v>
       </c>
       <c r="J38" t="n">
-        <v>149.2118287517425</v>
+        <v>149.2118287517424</v>
       </c>
       <c r="K38" t="n">
-        <v>231.9581442588043</v>
+        <v>231.9581442588041</v>
       </c>
       <c r="L38" t="n">
-        <v>293.8216964708931</v>
+        <v>293.821696470893</v>
       </c>
       <c r="M38" t="n">
-        <v>332.1315169509682</v>
+        <v>332.131516950968</v>
       </c>
       <c r="N38" t="n">
-        <v>338.2630691599245</v>
+        <v>338.2630691599243</v>
       </c>
       <c r="O38" t="n">
-        <v>317.2233555572708</v>
+        <v>317.2233555572706</v>
       </c>
       <c r="P38" t="n">
-        <v>265.0797516761317</v>
+        <v>265.0797516761316</v>
       </c>
       <c r="Q38" t="n">
         <v>191.1567112421903</v>
       </c>
       <c r="R38" t="n">
-        <v>97.17523614609507</v>
+        <v>97.17523614609502</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>22.59908041459595</v>
+        <v>22.59908041459594</v>
       </c>
       <c r="J39" t="n">
-        <v>245.5978048412543</v>
+        <v>85.78075499055981</v>
       </c>
       <c r="K39" t="n">
         <v>159.4414166888232</v>
       </c>
       <c r="L39" t="n">
-        <v>221.9921084428816</v>
+        <v>221.9921084428815</v>
       </c>
       <c r="M39" t="n">
-        <v>262.2315835766794</v>
+        <v>262.2315835766792</v>
       </c>
       <c r="N39" t="n">
-        <v>271.5371286518564</v>
+        <v>271.5371286518563</v>
       </c>
       <c r="O39" t="n">
-        <v>244.7562350265468</v>
+        <v>244.7562350265466</v>
       </c>
       <c r="P39" t="n">
-        <v>193.2650998667865</v>
+        <v>193.2650998667864</v>
       </c>
       <c r="Q39" t="n">
-        <v>120.9987936038114</v>
+        <v>280.8158434545063</v>
       </c>
       <c r="R39" t="n">
-        <v>46.24413655261006</v>
+        <v>46.24413655261003</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>124.818888462217</v>
       </c>
       <c r="K40" t="n">
-        <v>338.5013203235542</v>
+        <v>282.5119689782486</v>
       </c>
       <c r="L40" t="n">
         <v>498.6317970525386</v>
       </c>
       <c r="M40" t="n">
-        <v>125.4142422257274</v>
+        <v>125.4142422257273</v>
       </c>
       <c r="N40" t="n">
-        <v>525.7753746901097</v>
+        <v>123.7219172740691</v>
       </c>
       <c r="O40" t="n">
-        <v>110.9429964346749</v>
+        <v>492.4604957308397</v>
       </c>
       <c r="P40" t="n">
         <v>407.7173987012659</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.8119310665236</v>
+        <v>207.3372405317041</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>46.59263874259007</v>
+        <v>46.59263874259004</v>
       </c>
       <c r="J41" t="n">
-        <v>149.2118287517425</v>
+        <v>149.2118287517424</v>
       </c>
       <c r="K41" t="n">
-        <v>231.9581442588043</v>
+        <v>231.9581442588041</v>
       </c>
       <c r="L41" t="n">
-        <v>293.8216964708931</v>
+        <v>293.821696470893</v>
       </c>
       <c r="M41" t="n">
-        <v>332.1315169509682</v>
+        <v>332.131516950968</v>
       </c>
       <c r="N41" t="n">
-        <v>338.2630691599245</v>
+        <v>338.2630691599243</v>
       </c>
       <c r="O41" t="n">
-        <v>317.2233555572708</v>
+        <v>317.2233555572706</v>
       </c>
       <c r="P41" t="n">
-        <v>265.0797516761317</v>
+        <v>265.0797516761316</v>
       </c>
       <c r="Q41" t="n">
         <v>191.1567112421903</v>
       </c>
       <c r="R41" t="n">
-        <v>97.17523614609507</v>
+        <v>97.17523614609502</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>46.29332874228469</v>
+        <v>46.29332874228467</v>
       </c>
       <c r="J42" t="n">
-        <v>85.78075499055986</v>
+        <v>85.78075499055981</v>
       </c>
       <c r="K42" t="n">
-        <v>189.043510853338</v>
+        <v>159.4414166888232</v>
       </c>
       <c r="L42" t="n">
-        <v>221.9921084428816</v>
+        <v>221.9921084428815</v>
       </c>
       <c r="M42" t="n">
-        <v>262.2315835766794</v>
+        <v>262.2315835766792</v>
       </c>
       <c r="N42" t="n">
-        <v>271.5371286518564</v>
+        <v>271.5371286518563</v>
       </c>
       <c r="O42" t="n">
-        <v>244.7562350265468</v>
+        <v>244.7562350265466</v>
       </c>
       <c r="P42" t="n">
-        <v>193.2650998667865</v>
+        <v>193.2650998667864</v>
       </c>
       <c r="Q42" t="n">
-        <v>120.9987936038114</v>
+        <v>150.6008877683267</v>
       </c>
       <c r="R42" t="n">
-        <v>152.7648439111008</v>
+        <v>152.7648439111007</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.82953711691155</v>
+        <v>68.82953711691053</v>
       </c>
       <c r="K43" t="n">
         <v>338.5013203235542</v>
@@ -37946,13 +37946,13 @@
         <v>498.6317970525386</v>
       </c>
       <c r="M43" t="n">
-        <v>125.4142422257274</v>
+        <v>125.4142422257273</v>
       </c>
       <c r="N43" t="n">
-        <v>123.7219172740692</v>
+        <v>123.7219172740691</v>
       </c>
       <c r="O43" t="n">
-        <v>492.4604957308399</v>
+        <v>492.4604957308397</v>
       </c>
       <c r="P43" t="n">
         <v>407.7173987012659</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>46.59263874259007</v>
+        <v>46.59263874259004</v>
       </c>
       <c r="J44" t="n">
-        <v>149.2118287517425</v>
+        <v>149.2118287517424</v>
       </c>
       <c r="K44" t="n">
-        <v>231.9581442588043</v>
+        <v>231.9581442588041</v>
       </c>
       <c r="L44" t="n">
-        <v>293.8216964708931</v>
+        <v>293.821696470893</v>
       </c>
       <c r="M44" t="n">
-        <v>332.1315169509682</v>
+        <v>332.131516950968</v>
       </c>
       <c r="N44" t="n">
-        <v>338.2630691599245</v>
+        <v>338.2630691599243</v>
       </c>
       <c r="O44" t="n">
-        <v>317.2233555572708</v>
+        <v>317.2233555572706</v>
       </c>
       <c r="P44" t="n">
-        <v>265.0797516761317</v>
+        <v>265.0797516761316</v>
       </c>
       <c r="Q44" t="n">
         <v>191.1567112421903</v>
       </c>
       <c r="R44" t="n">
-        <v>97.175236146095</v>
+        <v>97.17523614609502</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>46.29332874228469</v>
+        <v>46.29332874228467</v>
       </c>
       <c r="J45" t="n">
-        <v>85.78075499055986</v>
+        <v>115.3828491550752</v>
       </c>
       <c r="K45" t="n">
-        <v>295.564218211829</v>
+        <v>159.4414166888232</v>
       </c>
       <c r="L45" t="n">
-        <v>221.9921084428816</v>
+        <v>221.9921084428815</v>
       </c>
       <c r="M45" t="n">
-        <v>262.2315835766794</v>
+        <v>262.2315835766792</v>
       </c>
       <c r="N45" t="n">
-        <v>271.5371286518564</v>
+        <v>271.5371286518563</v>
       </c>
       <c r="O45" t="n">
-        <v>244.7562350265468</v>
+        <v>244.7562350265466</v>
       </c>
       <c r="P45" t="n">
-        <v>193.2650998667865</v>
+        <v>193.2650998667864</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.9987936038114</v>
+        <v>120.9987936038113</v>
       </c>
       <c r="R45" t="n">
-        <v>46.24413655261006</v>
+        <v>152.7648439111007</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>124.818888462217</v>
       </c>
       <c r="K46" t="n">
-        <v>282.5119689782488</v>
+        <v>338.5013203235542</v>
       </c>
       <c r="L46" t="n">
         <v>498.6317970525386</v>
       </c>
       <c r="M46" t="n">
-        <v>125.4142422257274</v>
+        <v>125.4142422257273</v>
       </c>
       <c r="N46" t="n">
-        <v>123.7219172740692</v>
+        <v>123.7219172740691</v>
       </c>
       <c r="O46" t="n">
-        <v>492.4604957308399</v>
+        <v>492.4604957308397</v>
       </c>
       <c r="P46" t="n">
         <v>407.7173987012659</v>
       </c>
       <c r="Q46" t="n">
-        <v>207.3372405317041</v>
+        <v>151.3478891863979</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
